--- a/data/source/previous_releases/Earnings July 2017.xlsx
+++ b/data/source/previous_releases/Earnings July 2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Online SEM\Earnings\2017\July 2017\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="400" yWindow="1120" windowWidth="20780" windowHeight="11420" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="1110" windowWidth="20775" windowHeight="11415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Earnings Table" sheetId="2" r:id="rId1"/>
@@ -15,12 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SCRATCH!$A$3:$D$54</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -30,7 +30,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0">
+    <comment ref="E13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0">
+    <comment ref="E15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0">
+    <comment ref="E16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0">
+    <comment ref="E17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0">
+    <comment ref="E18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0">
+    <comment ref="E19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0">
+    <comment ref="E21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="E22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0">
+    <comment ref="E23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0">
+    <comment ref="E24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -330,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0">
+    <comment ref="E25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0">
+    <comment ref="E26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E27" authorId="0">
+    <comment ref="E27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0">
+    <comment ref="E28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -390,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0">
+    <comment ref="E29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0">
+    <comment ref="E30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E31" authorId="0">
+    <comment ref="E31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0">
+    <comment ref="E32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -450,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E33" authorId="0">
+    <comment ref="E33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="0">
+    <comment ref="E34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -480,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="0">
+    <comment ref="E35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -495,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0">
+    <comment ref="E36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -510,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="0">
+    <comment ref="E37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -525,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0">
+    <comment ref="E38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0">
+    <comment ref="E39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -555,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="0">
+    <comment ref="E40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -570,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E41" authorId="0">
+    <comment ref="E41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -585,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0">
+    <comment ref="E42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -600,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E43" authorId="0">
+    <comment ref="E43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -615,7 +615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0">
+    <comment ref="E44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -630,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="0">
+    <comment ref="E45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -645,7 +645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E46" authorId="0">
+    <comment ref="E46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -660,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E47" authorId="0">
+    <comment ref="E47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -675,7 +675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0">
+    <comment ref="E48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -690,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E49" authorId="0">
+    <comment ref="E49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0">
+    <comment ref="E50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -720,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0">
+    <comment ref="E51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -735,7 +735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="0">
+    <comment ref="E52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -750,7 +750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E53" authorId="0">
+    <comment ref="E53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -765,7 +765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0">
+    <comment ref="E54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E55" authorId="0">
+    <comment ref="E55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -805,7 +805,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="T5" authorId="0">
+    <comment ref="T5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -820,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="0">
+    <comment ref="T6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -835,7 +835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T8" authorId="0">
+    <comment ref="T8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -865,7 +865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="0">
+    <comment ref="T9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -880,7 +880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T10" authorId="0">
+    <comment ref="T10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -895,7 +895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T11" authorId="0">
+    <comment ref="T11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -910,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T12" authorId="0">
+    <comment ref="T12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -925,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T13" authorId="0">
+    <comment ref="T13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -940,7 +940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T14" authorId="0">
+    <comment ref="T14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T15" authorId="0">
+    <comment ref="T15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T16" authorId="0">
+    <comment ref="T16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -985,7 +985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T17" authorId="0">
+    <comment ref="T17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1000,7 +1000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T18" authorId="0">
+    <comment ref="T18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1015,7 +1015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T19" authorId="0">
+    <comment ref="T19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1030,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T20" authorId="0">
+    <comment ref="T20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1045,7 +1045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T21" authorId="0">
+    <comment ref="T21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1060,7 +1060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T22" authorId="0">
+    <comment ref="T22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T23" authorId="0">
+    <comment ref="T23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T24" authorId="0">
+    <comment ref="T24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T25" authorId="0">
+    <comment ref="T25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T26" authorId="0">
+    <comment ref="T26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1135,7 +1135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P27" authorId="0">
+    <comment ref="P27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q27" authorId="0">
+    <comment ref="Q27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1165,7 +1165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R27" authorId="0">
+    <comment ref="R27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1180,7 +1180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T27" authorId="0">
+    <comment ref="T27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1195,7 +1195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T28" authorId="0">
+    <comment ref="T28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1210,7 +1210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T29" authorId="0">
+    <comment ref="T29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1225,7 +1225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T30" authorId="0">
+    <comment ref="T30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1240,7 +1240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T31" authorId="0">
+    <comment ref="T31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T32" authorId="0">
+    <comment ref="T32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1270,7 +1270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T33" authorId="0">
+    <comment ref="T33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T34" authorId="0">
+    <comment ref="T34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T35" authorId="0">
+    <comment ref="T35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1315,7 +1315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T36" authorId="0">
+    <comment ref="T36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T37" authorId="0">
+    <comment ref="T37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1345,7 +1345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T38" authorId="0">
+    <comment ref="T38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T39" authorId="0">
+    <comment ref="T39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T40" authorId="0">
+    <comment ref="T40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1390,7 +1390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T41" authorId="0">
+    <comment ref="T41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1405,7 +1405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T42" authorId="0">
+    <comment ref="T42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1420,7 +1420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T43" authorId="0">
+    <comment ref="T43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1435,7 +1435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T44" authorId="0">
+    <comment ref="T44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T45" authorId="0">
+    <comment ref="T45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1465,7 +1465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T46" authorId="0">
+    <comment ref="T46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1480,7 +1480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T47" authorId="0">
+    <comment ref="T47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1495,7 +1495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T48" authorId="0">
+    <comment ref="T48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1510,7 +1510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T49" authorId="0">
+    <comment ref="T49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1525,7 +1525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T50" authorId="0">
+    <comment ref="T50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1540,7 +1540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T51" authorId="0">
+    <comment ref="T51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1555,7 +1555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T52" authorId="0">
+    <comment ref="T52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1570,7 +1570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T53" authorId="0">
+    <comment ref="T53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1585,7 +1585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T54" authorId="0">
+    <comment ref="T54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1600,7 +1600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T55" authorId="0">
+    <comment ref="T55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2240,21 +2240,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="13">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="#0.00"/>
-    <numFmt numFmtId="167" formatCode="0.0000000000"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="170" formatCode="m/d"/>
-    <numFmt numFmtId="171" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="172" formatCode="0%_);\(0%\)"/>
-    <numFmt numFmtId="173" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="174" formatCode="0.0"/>
-    <numFmt numFmtId="175" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="#0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="168" formatCode="m/d"/>
+    <numFmt numFmtId="169" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="170" formatCode="0%_);\(0%\)"/>
+    <numFmt numFmtId="171" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="#0"/>
   </numFmts>
   <fonts count="80" x14ac:knownFonts="1">
     <font>
@@ -3147,7 +3147,7 @@
       <left/>
       <right/>
       <top style="double">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -3156,7 +3156,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -3165,10 +3165,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3176,10 +3176,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3188,22 +3188,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3212,13 +3212,13 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -3261,14 +3261,14 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyAlignment="0"/>
-    <xf numFmtId="165" fontId="26" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="26" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="39" fontId="27" fillId="2" borderId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyFill="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="28" fillId="2" borderId="11" applyFill="0"/>
+    <xf numFmtId="166" fontId="28" fillId="2" borderId="11" applyFill="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyFont="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyFill="0">
       <alignment vertical="top"/>
@@ -3276,7 +3276,7 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyFill="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="31" fillId="2" borderId="12" applyFill="0"/>
+    <xf numFmtId="166" fontId="31" fillId="2" borderId="12" applyFill="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyFill="0">
       <alignment wrapText="1"/>
@@ -3284,7 +3284,7 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyFill="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="2" borderId="0" applyFill="0"/>
+    <xf numFmtId="166" fontId="25" fillId="2" borderId="0" applyFill="0"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
@@ -3294,7 +3294,7 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyFill="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="29" fillId="2" borderId="0" applyFill="0"/>
+    <xf numFmtId="166" fontId="29" fillId="2" borderId="0" applyFill="0"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
@@ -3304,7 +3304,7 @@
     <xf numFmtId="0" fontId="35" fillId="2" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="36" fillId="2" borderId="0" applyFill="0"/>
+    <xf numFmtId="166" fontId="36" fillId="2" borderId="0" applyFill="0"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
@@ -3314,15 +3314,15 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyFill="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="38" fillId="2" borderId="0" applyFill="0"/>
-    <xf numFmtId="165" fontId="36" fillId="2" borderId="0" applyFill="0"/>
+    <xf numFmtId="166" fontId="38" fillId="2" borderId="0" applyFill="0"/>
+    <xf numFmtId="43" fontId="36" fillId="2" borderId="0" applyFill="0"/>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="0" applyFill="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="0" applyFill="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="41" fillId="2" borderId="0" applyFill="0"/>
+    <xf numFmtId="166" fontId="41" fillId="2" borderId="0" applyFill="0"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
@@ -3332,12 +3332,12 @@
     <xf numFmtId="0" fontId="38" fillId="2" borderId="0" applyFill="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="43" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="43" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="0"/>
     <xf numFmtId="2" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3354,7 +3354,7 @@
     <xf numFmtId="10" fontId="26" fillId="39" borderId="16" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="36" borderId="0"/>
     <xf numFmtId="37" fontId="47" fillId="2" borderId="0"/>
-    <xf numFmtId="167" fontId="29" fillId="2" borderId="0"/>
+    <xf numFmtId="165" fontId="29" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="62" fillId="2" borderId="0"/>
@@ -3364,7 +3364,7 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="4" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="24" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3468,26 +3468,26 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="63" fillId="2" borderId="0"/>
-    <xf numFmtId="165" fontId="63" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="63" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="63" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="2" borderId="0"/>
     <xf numFmtId="9" fontId="64" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="65" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="43" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="24" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="43" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="24" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="2" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="66" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="66" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="171" fontId="66" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -3495,21 +3495,21 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="68" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="68" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="68" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="68" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="69" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="68" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="69" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="69" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="69" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="70" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="69" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="70" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="70" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="70" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="68" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="70" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="68" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="68" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="68" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="71" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="68" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="71" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="71" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="71" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="71" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0"/>
@@ -3523,20 +3523,20 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="29" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="29" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="29" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="29" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="29" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="29" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="29" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="29" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="29" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="29" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="29" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="29" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="72" fillId="2" borderId="0"/>
@@ -3547,27 +3547,27 @@
     <xf numFmtId="0" fontId="73" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="62" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="43" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="43" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="5" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="5" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="64" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="73" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="44" fillId="2" borderId="0"/>
@@ -3710,17 +3710,17 @@
     <xf numFmtId="39" fontId="60" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="9"/>
     </xf>
-    <xf numFmtId="173" fontId="74" fillId="2" borderId="18">
+    <xf numFmtId="171" fontId="74" fillId="2" borderId="18">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0"/>
-    <xf numFmtId="164" fontId="63" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="63" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0"/>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
@@ -3753,11 +3753,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="63" fillId="2" borderId="0"/>
-    <xf numFmtId="165" fontId="63" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="63" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="63" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
@@ -3768,18 +3768,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3787,9 +3787,9 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0"/>
-    <xf numFmtId="164" fontId="63" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="63" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0"/>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="29" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
@@ -3810,9 +3810,9 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="2" borderId="0"/>
-    <xf numFmtId="165" fontId="63" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="63" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="63" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
@@ -3821,25 +3821,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="164" fontId="63" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="63" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="9" fontId="63" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="63" fillId="2" borderId="0"/>
@@ -3849,7 +3849,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
@@ -3860,18 +3860,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3897,7 +3897,7 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3939,24 +3939,24 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="295" applyFont="1"/>
     <xf numFmtId="0" fontId="76" fillId="2" borderId="0" xfId="295" applyFont="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="174" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="5" fillId="0" borderId="0" xfId="479" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="479" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3972,7 +3972,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="78" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="78" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4514,7 +4514,7 @@
         <xdr:cNvPr id="1076" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4563,7 +4563,7 @@
         <xdr:cNvPr id="2" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4612,7 +4612,7 @@
         <xdr:cNvPr id="3" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4666,7 +4666,7 @@
         <xdr:cNvPr id="4" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4720,7 +4720,7 @@
         <xdr:cNvPr id="5" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4774,7 +4774,7 @@
         <xdr:cNvPr id="6" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4828,7 +4828,7 @@
         <xdr:cNvPr id="7" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4882,7 +4882,7 @@
         <xdr:cNvPr id="8" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5214,15 +5214,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>195</v>
       </c>
@@ -5230,7 +5230,7 @@
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>164</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>1.0800694669405031</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>113</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>0.47948041116914197</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>114</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>1.9995794181475679</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>115</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>8.4202774114052978</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>116</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>1.8935114256935615</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>117</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>5.5592694693389344</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>118</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>4.1802710450885128</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>119</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>2.653951392058107</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>120</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>11.761752934516245</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>121</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>6.8700494516544364</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>122</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>3.761031775713275</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>123</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>5.6856012776546505</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>124</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>5.518038031913397</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>125</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>2.9732277344208136</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>126</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>1.2310363191617268</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>127</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>4.8331589501042549</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>128</v>
       </c>
@@ -5532,7 +5532,7 @@
         <v>-1.4339970245571543</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>129</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>2.401750193753216</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>130</v>
       </c>
@@ -5566,7 +5566,7 @@
         <v>1.87632742564392</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>131</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>3.1342544977436271</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>132</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>4.2830182606085065</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>133</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>2.7474728856072161</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>134</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>2.2072751628677389</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>135</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>2.0684340018956693</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>136</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>4.6112733569586339</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>137</v>
       </c>
@@ -5685,7 +5685,7 @@
         <v>0.43070583926916317</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>138</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>8.2527762291400464</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>139</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>3.449378719085483</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>140</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>5.1199730820937983</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>141</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>1.9047499961891479</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>142</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>0.8858237823111903</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>143</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>3.9691704339658074</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>144</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>4.2103089981685216</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>145</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>1.9626545183159871</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>146</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>2.9890354333622637</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>3.9409293472148166</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>148</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>0.99777586777844984</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>149</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v>5.4435964424423</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>150</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>3.412728385519781</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>151</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>0.33010723046997814</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>152</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>2.34390400101121</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>153</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>3.9592501859836426</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>154</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>0.51854527674572992</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>155</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>2.4702090932969378</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>156</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>5.0785595065279132</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>157</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>5.1228788880663068</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>158</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>-0.58111146522916712</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>159</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>-0.38460703019946862</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>160</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>4.9974356044612422</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>161</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>4.2933053876920368</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>162</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>1.9549776190133317</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>163</v>
       </c>
@@ -6132,12 +6132,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6152,36 +6147,36 @@
       <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="1"/>
-    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="235" width="8" style="1" customWidth="1"/>
-    <col min="236" max="16384" width="8.83203125" style="1"/>
+    <col min="236" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15">
+    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C1" s="49" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="50"/>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D3" s="33"/>
     </row>
-    <row r="4" spans="1:32" ht="25" thickBot="1">
+    <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>61</v>
       </c>
@@ -6231,7 +6226,7 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
     </row>
-    <row r="5" spans="1:32" ht="14" thickTop="1">
+    <row r="5" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>1</v>
       </c>
@@ -6266,7 +6261,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -6301,7 +6296,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>4</v>
       </c>
@@ -6336,7 +6331,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>5</v>
       </c>
@@ -6371,7 +6366,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>6</v>
       </c>
@@ -6406,7 +6401,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>8</v>
       </c>
@@ -6441,7 +6436,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>9</v>
       </c>
@@ -6476,7 +6471,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>10</v>
       </c>
@@ -6511,7 +6506,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>11</v>
       </c>
@@ -6546,7 +6541,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>12</v>
       </c>
@@ -6581,7 +6576,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>13</v>
       </c>
@@ -6616,7 +6611,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -6651,7 +6646,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -6686,7 +6681,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -6721,7 +6716,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -6756,7 +6751,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -6791,7 +6786,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -6826,7 +6821,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -6861,7 +6856,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -6896,7 +6891,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -6931,7 +6926,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -6966,7 +6961,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -7001,7 +6996,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -7036,7 +7031,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -7071,7 +7066,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -7106,7 +7101,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -7141,7 +7136,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -7176,7 +7171,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -7211,7 +7206,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -7246,7 +7241,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -7281,7 +7276,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -7316,7 +7311,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -7351,7 +7346,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -7386,7 +7381,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -7421,7 +7416,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -7456,7 +7451,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>39</v>
       </c>
@@ -7491,7 +7486,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -7526,7 +7521,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -7561,7 +7556,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -7596,7 +7591,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>44</v>
       </c>
@@ -7631,7 +7626,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>45</v>
       </c>
@@ -7666,7 +7661,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>46</v>
       </c>
@@ -7701,7 +7696,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>47</v>
       </c>
@@ -7736,7 +7731,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>48</v>
       </c>
@@ -7771,7 +7766,7 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>49</v>
       </c>
@@ -7806,7 +7801,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>50</v>
       </c>
@@ -7841,7 +7836,7 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>51</v>
       </c>
@@ -7876,7 +7871,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>53</v>
       </c>
@@ -7911,7 +7906,7 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <v>54</v>
       </c>
@@ -7946,7 +7941,7 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <v>55</v>
       </c>
@@ -7981,7 +7976,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <v>56</v>
       </c>
@@ -8019,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="11"/>
@@ -8028,7 +8023,7 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:15" ht="14" thickBot="1">
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C57" s="7" t="s">
         <v>54</v>
       </c>
@@ -8051,7 +8046,7 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" ht="14" thickTop="1">
+    <row r="58" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C58" s="7" t="s">
         <v>167</v>
       </c>
@@ -8078,7 +8073,7 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
@@ -8090,7 +8085,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C60" s="7" t="s">
         <v>55</v>
       </c>
@@ -8104,7 +8099,7 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C61" s="7" t="s">
         <v>56</v>
       </c>
@@ -8125,7 +8120,7 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:15" ht="14">
+    <row r="62" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -8137,7 +8132,7 @@
       <c r="K62"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -8149,7 +8144,7 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="65" spans="4:7">
+    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D65" s="31"/>
       <c r="E65" s="31"/>
       <c r="F65" s="31"/>
@@ -8160,18 +8155,13 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
     <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: March 27, 2015 (04:23:58 PM)</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8186,14 +8176,14 @@
       <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="47" customWidth="1"/>
     <col min="2" max="255" width="8" style="47" customWidth="1"/>
-    <col min="256" max="16384" width="8.83203125" style="47"/>
+    <col min="256" max="16384" width="9.140625" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -8211,7 +8201,7 @@
       <c r="M1" s="52"/>
       <c r="N1" s="52"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
@@ -8219,7 +8209,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
@@ -8234,7 +8224,7 @@
       <c r="M3" s="52"/>
       <c r="N3" s="52"/>
     </row>
-    <row r="4" spans="1:25" ht="26" thickBot="1">
+    <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>2</v>
       </c>
@@ -8311,7 +8301,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15" thickTop="1">
+    <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
@@ -8373,7 +8363,7 @@
         <v>799.46</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
         <v>4</v>
       </c>
@@ -8435,7 +8425,7 @@
         <v>1027.1099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
         <v>5</v>
       </c>
@@ -8497,7 +8487,7 @@
         <v>898.1</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="37" t="s">
         <v>6</v>
       </c>
@@ -8559,7 +8549,7 @@
         <v>724.46</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="37" t="s">
         <v>7</v>
       </c>
@@ -8621,7 +8611,7 @@
         <v>1061.28</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="37" t="s">
         <v>8</v>
       </c>
@@ -8683,7 +8673,7 @@
         <v>953.57</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="37" t="s">
         <v>9</v>
       </c>
@@ -8745,7 +8735,7 @@
         <v>1058.95</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="37" t="s">
         <v>10</v>
       </c>
@@ -8807,7 +8797,7 @@
         <v>911.09</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="37" t="s">
         <v>11</v>
       </c>
@@ -8869,7 +8859,7 @@
         <v>1477.08</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
         <v>12</v>
       </c>
@@ -8931,7 +8921,7 @@
         <v>829.38</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="37" t="s">
         <v>13</v>
       </c>
@@ -8993,7 +8983,7 @@
         <v>911.41</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>14</v>
       </c>
@@ -9055,7 +9045,7 @@
         <v>898.78</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>15</v>
       </c>
@@ -9117,7 +9107,7 @@
         <v>770.56</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
         <v>16</v>
       </c>
@@ -9179,7 +9169,7 @@
         <v>927.77</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="37" t="s">
         <v>17</v>
       </c>
@@ -9241,7 +9231,7 @@
         <v>865.56</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>18</v>
       </c>
@@ -9303,7 +9293,7 @@
         <v>811.98</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="37" t="s">
         <v>19</v>
       </c>
@@ -9365,7 +9355,7 @@
         <v>798.91</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
         <v>20</v>
       </c>
@@ -9427,7 +9417,7 @@
         <v>774.84</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
         <v>21</v>
       </c>
@@ -9489,7 +9479,7 @@
         <v>828.21</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
         <v>22</v>
       </c>
@@ -9551,7 +9541,7 @@
         <v>785.22</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
         <v>23</v>
       </c>
@@ -9613,7 +9603,7 @@
         <v>970.14</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
         <v>24</v>
       </c>
@@ -9675,7 +9665,7 @@
         <v>1077.05</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
         <v>25</v>
       </c>
@@ -9737,7 +9727,7 @@
         <v>852.95</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>26</v>
       </c>
@@ -9799,7 +9789,7 @@
         <v>977.99</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
         <v>27</v>
       </c>
@@ -9861,7 +9851,7 @@
         <v>715.97</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
         <v>28</v>
       </c>
@@ -9923,7 +9913,7 @@
         <v>822.17</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
         <v>29</v>
       </c>
@@ -9985,7 +9975,7 @@
         <v>778.08</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
         <v>30</v>
       </c>
@@ -10047,7 +10037,7 @@
         <v>836.97</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
         <v>31</v>
       </c>
@@ -10109,7 +10099,7 @@
         <v>775.73</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
         <v>32</v>
       </c>
@@ -10171,7 +10161,7 @@
         <v>874.79</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
         <v>33</v>
       </c>
@@ -10233,7 +10223,7 @@
         <v>1000.84</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
         <v>34</v>
       </c>
@@ -10295,7 +10285,7 @@
         <v>725.9</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>35</v>
       </c>
@@ -10357,7 +10347,7 @@
         <v>1013.7</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>36</v>
       </c>
@@ -10419,7 +10409,7 @@
         <v>841.46</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>37</v>
       </c>
@@ -10481,7 +10471,7 @@
         <v>942.73</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
         <v>38</v>
       </c>
@@ -10543,7 +10533,7 @@
         <v>822.17</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
         <v>39</v>
       </c>
@@ -10605,7 +10595,7 @@
         <v>833.69</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
         <v>40</v>
       </c>
@@ -10667,7 +10657,7 @@
         <v>888.79</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
         <v>41</v>
       </c>
@@ -10729,7 +10719,7 @@
         <v>848.64</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
         <v>42</v>
       </c>
@@ -10791,7 +10781,7 @@
         <v>877.48</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
         <v>43</v>
       </c>
@@ -10853,7 +10843,7 @@
         <v>797.81</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
         <v>44</v>
       </c>
@@ -10915,7 +10905,7 @@
         <v>743.97</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
         <v>45</v>
       </c>
@@ -10977,7 +10967,7 @@
         <v>805.98</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
         <v>46</v>
       </c>
@@ -11039,7 +11029,7 @@
         <v>930.75</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
         <v>47</v>
       </c>
@@ -11101,7 +11091,7 @@
         <v>903.21</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
         <v>48</v>
       </c>
@@ -11163,7 +11153,7 @@
         <v>821.14</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="37" t="s">
         <v>49</v>
       </c>
@@ -11225,7 +11215,7 @@
         <v>955.96</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="37" t="s">
         <v>50</v>
       </c>
@@ -11287,7 +11277,7 @@
         <v>1109.08</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="37" t="s">
         <v>51</v>
       </c>
@@ -11349,7 +11339,7 @@
         <v>780.12</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="37" t="s">
         <v>52</v>
       </c>
@@ -11411,7 +11401,7 @@
         <v>839.95</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="37" t="s">
         <v>53</v>
       </c>
@@ -11485,11 +11475,6 @@
     <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: August 18, 2017 (11:01:57 AM)</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11501,15 +11486,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="4" width="40.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>166</v>
       </c>
@@ -11525,7 +11510,7 @@
         <v>1.0800694669405031</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>194</v>
       </c>
@@ -11533,7 +11518,7 @@
       <c r="C2" s="53"/>
       <c r="D2" s="53"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>165</v>
       </c>
@@ -11547,7 +11532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>+Earnings_Comparison!B12</f>
         <v>DE</v>
@@ -11564,7 +11549,7 @@
         <v>11.761752934516245</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>+Earnings_Comparison!B7</f>
         <v>AZ</v>
@@ -11581,7 +11566,7 @@
         <v>8.4202774114052978</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>+Earnings_Comparison!B55</f>
         <v>WY</v>
@@ -11599,7 +11584,7 @@
       </c>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>+Earnings_Comparison!B30</f>
         <v>MO</v>
@@ -11618,7 +11603,7 @@
       <c r="K7" s="20"/>
       <c r="M7" s="20"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>+Earnings_Comparison!B13</f>
         <v>DC</v>
@@ -11640,7 +11625,7 @@
       </c>
       <c r="M8" s="20"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>+Earnings_Comparison!B15</f>
         <v>GA</v>
@@ -11662,7 +11647,7 @@
       </c>
       <c r="M9" s="20"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>+Earnings_Comparison!B9</f>
         <v>CA</v>
@@ -11684,7 +11669,7 @@
       </c>
       <c r="M10" s="20"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>+Earnings_Comparison!B16</f>
         <v>HI</v>
@@ -11706,7 +11691,7 @@
       </c>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>+Earnings_Comparison!B41</f>
         <v>OK</v>
@@ -11726,7 +11711,7 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>+Earnings_Comparison!B49</f>
         <v>UT</v>
@@ -11745,7 +11730,7 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>+Earnings_Comparison!B32</f>
         <v>NE</v>
@@ -11768,7 +11753,7 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>+Earnings_Comparison!B48</f>
         <v>TX</v>
@@ -11791,7 +11776,7 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>+Earnings_Comparison!B52</f>
         <v>WA</v>
@@ -11813,7 +11798,7 @@
       </c>
       <c r="M16" s="20"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>+Earnings_Comparison!B19</f>
         <v>IN</v>
@@ -11835,7 +11820,7 @@
       </c>
       <c r="M17" s="20"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>+Earnings_Comparison!B28</f>
         <v>MN</v>
@@ -11857,7 +11842,7 @@
       </c>
       <c r="M18" s="20"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>+Earnings_Comparison!B53</f>
         <v>WV</v>
@@ -11879,7 +11864,7 @@
       </c>
       <c r="M19" s="20"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>+Earnings_Comparison!B24</f>
         <v>ME</v>
@@ -11901,7 +11886,7 @@
       </c>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>+Earnings_Comparison!B36</f>
         <v>NM</v>
@@ -11922,7 +11907,7 @@
         <v>183.51999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>+Earnings_Comparison!B10</f>
         <v>CO</v>
@@ -11939,7 +11924,7 @@
         <v>4.1802710450885128</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>+Earnings_Comparison!B35</f>
         <v>NJ</v>
@@ -11956,7 +11941,7 @@
         <v>3.9691704339658074</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>+Earnings_Comparison!B45</f>
         <v>SC</v>
@@ -11973,7 +11958,7 @@
         <v>3.9592501859836426</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>+Earnings_Comparison!B39</f>
         <v>ND</v>
@@ -11990,7 +11975,7 @@
         <v>3.9409293472148166</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>+Earnings_Comparison!B14</f>
         <v>FL</v>
@@ -12007,7 +11992,7 @@
         <v>3.761031775713275</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>+Earnings_Comparison!B31</f>
         <v>MT</v>
@@ -12024,7 +12009,7 @@
         <v>3.449378719085483</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>+Earnings_Comparison!B42</f>
         <v>OR</v>
@@ -12041,7 +12026,7 @@
         <v>3.412728385519781</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>+Earnings_Comparison!B23</f>
         <v>LA</v>
@@ -12058,7 +12043,7 @@
         <v>3.1342544977436271</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>+Earnings_Comparison!B38</f>
         <v>NC</v>
@@ -12075,7 +12060,7 @@
         <v>2.9890354333622637</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>+Earnings_Comparison!B17</f>
         <v>ID</v>
@@ -12092,7 +12077,7 @@
         <v>2.9732277344208136</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>+Earnings_Comparison!B25</f>
         <v>MD</v>
@@ -12112,7 +12097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>+Earnings_Comparison!B11</f>
         <v>CT</v>
@@ -12129,7 +12114,7 @@
         <v>2.653951392058107</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>+Earnings_Comparison!B47</f>
         <v>TN</v>
@@ -12146,7 +12131,7 @@
         <v>2.4702090932969378</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>+Earnings_Comparison!B21</f>
         <v>KS</v>
@@ -12163,7 +12148,7 @@
         <v>2.401750193753216</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>+Earnings_Comparison!B44</f>
         <v>RI</v>
@@ -12180,7 +12165,7 @@
         <v>2.34390400101121</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f>+Earnings_Comparison!B26</f>
         <v>MA</v>
@@ -12197,7 +12182,7 @@
         <v>2.2072751628677389</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>+Earnings_Comparison!B27</f>
         <v>MI</v>
@@ -12214,7 +12199,7 @@
         <v>2.0684340018956693</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>+Earnings_Comparison!B6</f>
         <v>AK</v>
@@ -12231,7 +12216,7 @@
         <v>1.9995794181475679</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>+Earnings_Comparison!B37</f>
         <v>NY</v>
@@ -12248,7 +12233,7 @@
         <v>1.9626545183159871</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f>+Earnings_Comparison!B54</f>
         <v>WI</v>
@@ -12265,7 +12250,7 @@
         <v>1.9549776190133317</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f>+Earnings_Comparison!B33</f>
         <v>NV</v>
@@ -12282,7 +12267,7 @@
         <v>1.9047499961891479</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>+Earnings_Comparison!B8</f>
         <v>AR</v>
@@ -12299,7 +12284,7 @@
         <v>1.8935114256935615</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>+Earnings_Comparison!B22</f>
         <v>KY</v>
@@ -12317,7 +12302,7 @@
       </c>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>+Earnings_Comparison!B18</f>
         <v>IL</v>
@@ -12337,7 +12322,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>+Earnings_Comparison!B40</f>
         <v>OH</v>
@@ -12357,7 +12342,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>+Earnings_Comparison!B34</f>
         <v>NH</v>
@@ -12377,7 +12362,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>+Earnings_Comparison!B46</f>
         <v>SD</v>
@@ -12397,7 +12382,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>+Earnings_Comparison!B5</f>
         <v>AL</v>
@@ -12417,7 +12402,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>+Earnings_Comparison!B29</f>
         <v>MS</v>
@@ -12437,7 +12422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>+Earnings_Comparison!B43</f>
         <v>PA</v>
@@ -12457,7 +12442,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>+Earnings_Comparison!B51</f>
         <v>VA</v>
@@ -12475,7 +12460,7 @@
       </c>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>+Earnings_Comparison!B50</f>
         <v>VT</v>
@@ -12493,7 +12478,7 @@
       </c>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>+Earnings_Comparison!B20</f>
         <v>IA</v>
@@ -12510,7 +12495,7 @@
         <v>-1.4339970245571543</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56">
         <f>COUNTIF(C4:C54, "&lt;909")</f>
         <v>34</v>
@@ -12533,11 +12518,6 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/source/previous_releases/Earnings July 2017.xlsx
+++ b/data/source/previous_releases/Earnings July 2017.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Online SEM\Earnings\2017\July 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchartof/Desktop/sem/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1110" windowWidth="20775" windowHeight="11415" activeTab="3"/>
+    <workbookView xWindow="400" yWindow="1120" windowWidth="20780" windowHeight="11420"/>
   </bookViews>
   <sheets>
     <sheet name="Earnings Table" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SCRATCH!$A$3:$D$54</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,7 +38,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0" shapeId="0">
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0" shapeId="0">
+    <comment ref="E13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0">
+    <comment ref="E14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0" shapeId="0">
+    <comment ref="E15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -195,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0">
+    <comment ref="E16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0">
+    <comment ref="E17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0">
+    <comment ref="E18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
+    <comment ref="E19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0" shapeId="0">
+    <comment ref="E21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -285,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0">
+    <comment ref="E22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0">
+    <comment ref="E23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -315,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0">
+    <comment ref="E24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -330,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0" shapeId="0">
+    <comment ref="E25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -345,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0">
+    <comment ref="E26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E27" authorId="0" shapeId="0">
+    <comment ref="E27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0" shapeId="0">
+    <comment ref="E28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -390,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0" shapeId="0">
+    <comment ref="E29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0">
+    <comment ref="E30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E31" authorId="0" shapeId="0">
+    <comment ref="E31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0">
+    <comment ref="E32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -450,7 +458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E33" authorId="0" shapeId="0">
+    <comment ref="E33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -465,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="0" shapeId="0">
+    <comment ref="E34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -480,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="0" shapeId="0">
+    <comment ref="E35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -495,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0" shapeId="0">
+    <comment ref="E36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -510,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="0" shapeId="0">
+    <comment ref="E37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -525,7 +533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0">
+    <comment ref="E38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -540,7 +548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0" shapeId="0">
+    <comment ref="E39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -555,7 +563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="0" shapeId="0">
+    <comment ref="E40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -570,7 +578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E41" authorId="0" shapeId="0">
+    <comment ref="E41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -585,7 +593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0" shapeId="0">
+    <comment ref="E42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -600,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E43" authorId="0" shapeId="0">
+    <comment ref="E43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -615,7 +623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0">
+    <comment ref="E44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -630,7 +638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="0" shapeId="0">
+    <comment ref="E45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -645,7 +653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E46" authorId="0" shapeId="0">
+    <comment ref="E46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -660,7 +668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E47" authorId="0" shapeId="0">
+    <comment ref="E47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -675,7 +683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0" shapeId="0">
+    <comment ref="E48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -690,7 +698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E49" authorId="0" shapeId="0">
+    <comment ref="E49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0" shapeId="0">
+    <comment ref="E50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -720,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0" shapeId="0">
+    <comment ref="E51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -735,7 +743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="0" shapeId="0">
+    <comment ref="E52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -750,7 +758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E53" authorId="0" shapeId="0">
+    <comment ref="E53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -765,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0" shapeId="0">
+    <comment ref="E54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -780,7 +788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E55" authorId="0" shapeId="0">
+    <comment ref="E55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -805,7 +813,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="T5" authorId="0" shapeId="0">
+    <comment ref="T5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -820,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T6" authorId="0" shapeId="0">
+    <comment ref="T6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -835,7 +843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T8" authorId="0" shapeId="0">
+    <comment ref="T8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -865,7 +873,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="0" shapeId="0">
+    <comment ref="T9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -880,7 +888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T10" authorId="0" shapeId="0">
+    <comment ref="T10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -895,7 +903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T11" authorId="0" shapeId="0">
+    <comment ref="T11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -910,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T12" authorId="0" shapeId="0">
+    <comment ref="T12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -925,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T13" authorId="0" shapeId="0">
+    <comment ref="T13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -940,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T14" authorId="0" shapeId="0">
+    <comment ref="T14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +963,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T15" authorId="0" shapeId="0">
+    <comment ref="T15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T16" authorId="0" shapeId="0">
+    <comment ref="T16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -985,7 +993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T17" authorId="0" shapeId="0">
+    <comment ref="T17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1000,7 +1008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T18" authorId="0" shapeId="0">
+    <comment ref="T18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1015,7 +1023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T19" authorId="0" shapeId="0">
+    <comment ref="T19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T20" authorId="0" shapeId="0">
+    <comment ref="T20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1045,7 +1053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T21" authorId="0" shapeId="0">
+    <comment ref="T21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1060,7 +1068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T22" authorId="0" shapeId="0">
+    <comment ref="T22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T23" authorId="0" shapeId="0">
+    <comment ref="T23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T24" authorId="0" shapeId="0">
+    <comment ref="T24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T25" authorId="0" shapeId="0">
+    <comment ref="T25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T26" authorId="0" shapeId="0">
+    <comment ref="T26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1135,7 +1143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P27" authorId="0" shapeId="0">
+    <comment ref="P27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q27" authorId="0" shapeId="0">
+    <comment ref="Q27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1165,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R27" authorId="0" shapeId="0">
+    <comment ref="R27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1180,7 +1188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T27" authorId="0" shapeId="0">
+    <comment ref="T27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1195,7 +1203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T28" authorId="0" shapeId="0">
+    <comment ref="T28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1210,7 +1218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T29" authorId="0" shapeId="0">
+    <comment ref="T29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1225,7 +1233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T30" authorId="0" shapeId="0">
+    <comment ref="T30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1240,7 +1248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T31" authorId="0" shapeId="0">
+    <comment ref="T31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T32" authorId="0" shapeId="0">
+    <comment ref="T32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1270,7 +1278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T33" authorId="0" shapeId="0">
+    <comment ref="T33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T34" authorId="0" shapeId="0">
+    <comment ref="T34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T35" authorId="0" shapeId="0">
+    <comment ref="T35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1315,7 +1323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T36" authorId="0" shapeId="0">
+    <comment ref="T36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T37" authorId="0" shapeId="0">
+    <comment ref="T37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1345,7 +1353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T38" authorId="0" shapeId="0">
+    <comment ref="T38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T39" authorId="0" shapeId="0">
+    <comment ref="T39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T40" authorId="0" shapeId="0">
+    <comment ref="T40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1390,7 +1398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T41" authorId="0" shapeId="0">
+    <comment ref="T41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1405,7 +1413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T42" authorId="0" shapeId="0">
+    <comment ref="T42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1420,7 +1428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T43" authorId="0" shapeId="0">
+    <comment ref="T43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1435,7 +1443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T44" authorId="0" shapeId="0">
+    <comment ref="T44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1458,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T45" authorId="0" shapeId="0">
+    <comment ref="T45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1465,7 +1473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T46" authorId="0" shapeId="0">
+    <comment ref="T46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1480,7 +1488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T47" authorId="0" shapeId="0">
+    <comment ref="T47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1495,7 +1503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T48" authorId="0" shapeId="0">
+    <comment ref="T48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1510,7 +1518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T49" authorId="0" shapeId="0">
+    <comment ref="T49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1525,7 +1533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T50" authorId="0" shapeId="0">
+    <comment ref="T50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1540,7 +1548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T51" authorId="0" shapeId="0">
+    <comment ref="T51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1555,7 +1563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T52" authorId="0" shapeId="0">
+    <comment ref="T52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1570,7 +1578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T53" authorId="0" shapeId="0">
+    <comment ref="T53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1585,7 +1593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T54" authorId="0" shapeId="0">
+    <comment ref="T54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1600,7 +1608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T55" authorId="0" shapeId="0">
+    <comment ref="T55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2240,7 +2248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="13">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2253,8 +2261,8 @@
     <numFmt numFmtId="170" formatCode="0%_);\(0%\)"/>
     <numFmt numFmtId="171" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="174" formatCode="#0"/>
+    <numFmt numFmtId="175" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="80" x14ac:knownFonts="1">
     <font>
@@ -3147,7 +3155,7 @@
       <left/>
       <right/>
       <top style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -3156,7 +3164,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -3165,10 +3173,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3176,10 +3184,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3188,22 +3196,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3212,13 +3220,13 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -3948,7 +3956,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="172" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" xfId="479" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3998,6 +4005,7 @@
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="175" fontId="5" fillId="0" borderId="0" xfId="479" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="480">
     <cellStyle name="20% - Accent1" xfId="9" builtinId="30" customBuiltin="1"/>
@@ -4514,7 +4522,7 @@
         <xdr:cNvPr id="1076" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000034040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4563,7 +4571,7 @@
         <xdr:cNvPr id="2" name="_xssf_cell_comment" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4612,7 +4620,7 @@
         <xdr:cNvPr id="3" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4666,7 +4674,7 @@
         <xdr:cNvPr id="4" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4720,7 +4728,7 @@
         <xdr:cNvPr id="5" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4774,7 +4782,7 @@
         <xdr:cNvPr id="6" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4828,7 +4836,7 @@
         <xdr:cNvPr id="7" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4882,7 +4890,7 @@
         <xdr:cNvPr id="8" name="AutoShape 52">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5210,27 +5218,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
@@ -5244,14 +5252,14 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="30">
+      <c r="C3" s="53">
         <f>+Earnings_Comparison!E58</f>
         <v>909.42</v>
       </c>
@@ -5260,7 +5268,7 @@
         <v>1.0800694669405031</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>113</v>
       </c>
@@ -5268,7 +5276,7 @@
         <f>+Earnings_Comparison!B5</f>
         <v>AL</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="53">
         <f>+Earnings_Comparison!E5</f>
         <v>799.46</v>
       </c>
@@ -5277,7 +5285,7 @@
         <v>0.47948041116914197</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>114</v>
       </c>
@@ -5285,7 +5293,7 @@
         <f>+Earnings_Comparison!B6</f>
         <v>AK</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="53">
         <f>+Earnings_Comparison!E6</f>
         <v>1027.1099999999999</v>
       </c>
@@ -5294,7 +5302,7 @@
         <v>1.9995794181475679</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>115</v>
       </c>
@@ -5302,7 +5310,7 @@
         <f>+Earnings_Comparison!B7</f>
         <v>AZ</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="53">
         <f>+Earnings_Comparison!E7</f>
         <v>898.1</v>
       </c>
@@ -5311,7 +5319,7 @@
         <v>8.4202774114052978</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>116</v>
       </c>
@@ -5319,7 +5327,7 @@
         <f>+Earnings_Comparison!B8</f>
         <v>AR</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="53">
         <f>+Earnings_Comparison!E8</f>
         <v>724.46</v>
       </c>
@@ -5328,7 +5336,7 @@
         <v>1.8935114256935615</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>117</v>
       </c>
@@ -5336,7 +5344,7 @@
         <f>+Earnings_Comparison!B9</f>
         <v>CA</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="53">
         <f>+Earnings_Comparison!E9</f>
         <v>1061.28</v>
       </c>
@@ -5345,7 +5353,7 @@
         <v>5.5592694693389344</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>118</v>
       </c>
@@ -5353,7 +5361,7 @@
         <f>+Earnings_Comparison!B10</f>
         <v>CO</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="53">
         <f>+Earnings_Comparison!E10</f>
         <v>953.57</v>
       </c>
@@ -5362,7 +5370,7 @@
         <v>4.1802710450885128</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>119</v>
       </c>
@@ -5370,7 +5378,7 @@
         <f>+Earnings_Comparison!B11</f>
         <v>CT</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="53">
         <f>+Earnings_Comparison!E11</f>
         <v>1058.95</v>
       </c>
@@ -5379,7 +5387,7 @@
         <v>2.653951392058107</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>120</v>
       </c>
@@ -5387,7 +5395,7 @@
         <f>+Earnings_Comparison!B12</f>
         <v>DE</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="53">
         <f>+Earnings_Comparison!E12</f>
         <v>911.09</v>
       </c>
@@ -5396,7 +5404,7 @@
         <v>11.761752934516245</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>121</v>
       </c>
@@ -5404,7 +5412,7 @@
         <f>+Earnings_Comparison!B13</f>
         <v>DC</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="53">
         <f>+Earnings_Comparison!E13</f>
         <v>1477.08</v>
       </c>
@@ -5413,7 +5421,7 @@
         <v>6.8700494516544364</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>122</v>
       </c>
@@ -5421,7 +5429,7 @@
         <f>+Earnings_Comparison!B14</f>
         <v>FL</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="53">
         <f>+Earnings_Comparison!E14</f>
         <v>829.38</v>
       </c>
@@ -5430,7 +5438,7 @@
         <v>3.761031775713275</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>123</v>
       </c>
@@ -5438,7 +5446,7 @@
         <f>+Earnings_Comparison!B15</f>
         <v>GA</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="53">
         <f>+Earnings_Comparison!E15</f>
         <v>911.41</v>
       </c>
@@ -5447,7 +5455,7 @@
         <v>5.6856012776546505</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>124</v>
       </c>
@@ -5455,7 +5463,7 @@
         <f>+Earnings_Comparison!B16</f>
         <v>HI</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="53">
         <f>+Earnings_Comparison!E16</f>
         <v>898.78</v>
       </c>
@@ -5464,7 +5472,7 @@
         <v>5.518038031913397</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>125</v>
       </c>
@@ -5472,7 +5480,7 @@
         <f>+Earnings_Comparison!B17</f>
         <v>ID</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="53">
         <f>+Earnings_Comparison!E17</f>
         <v>770.56</v>
       </c>
@@ -5481,7 +5489,7 @@
         <v>2.9732277344208136</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>126</v>
       </c>
@@ -5489,7 +5497,7 @@
         <f>+Earnings_Comparison!B18</f>
         <v>IL</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="53">
         <f>+Earnings_Comparison!E18</f>
         <v>927.77</v>
       </c>
@@ -5498,7 +5506,7 @@
         <v>1.2310363191617268</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
         <v>127</v>
       </c>
@@ -5506,7 +5514,7 @@
         <f>+Earnings_Comparison!B19</f>
         <v>IN</v>
       </c>
-      <c r="C18" s="30">
+      <c r="C18" s="53">
         <f>+Earnings_Comparison!E19</f>
         <v>865.56</v>
       </c>
@@ -5515,7 +5523,7 @@
         <v>4.8331589501042549</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
         <v>128</v>
       </c>
@@ -5523,7 +5531,7 @@
         <f>+Earnings_Comparison!B20</f>
         <v>IA</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="53">
         <f>+Earnings_Comparison!E20</f>
         <v>811.98</v>
       </c>
@@ -5532,7 +5540,7 @@
         <v>-1.4339970245571543</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>129</v>
       </c>
@@ -5540,7 +5548,7 @@
         <f>+Earnings_Comparison!B21</f>
         <v>KS</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="53">
         <f>+Earnings_Comparison!E21</f>
         <v>798.91</v>
       </c>
@@ -5549,7 +5557,7 @@
         <v>2.401750193753216</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>130</v>
       </c>
@@ -5557,7 +5565,7 @@
         <f>+Earnings_Comparison!B22</f>
         <v>KY</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="53">
         <f>+Earnings_Comparison!E22</f>
         <v>774.84</v>
       </c>
@@ -5566,7 +5574,7 @@
         <v>1.87632742564392</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>131</v>
       </c>
@@ -5574,7 +5582,7 @@
         <f>+Earnings_Comparison!B23</f>
         <v>LA</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="53">
         <f>+Earnings_Comparison!E23</f>
         <v>828.21</v>
       </c>
@@ -5583,7 +5591,7 @@
         <v>3.1342544977436271</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>132</v>
       </c>
@@ -5591,7 +5599,7 @@
         <f>+Earnings_Comparison!B24</f>
         <v>ME</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="53">
         <f>+Earnings_Comparison!E24</f>
         <v>785.22</v>
       </c>
@@ -5600,7 +5608,7 @@
         <v>4.2830182606085065</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>133</v>
       </c>
@@ -5608,7 +5616,7 @@
         <f>+Earnings_Comparison!B25</f>
         <v>MD</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="53">
         <f>+Earnings_Comparison!E25</f>
         <v>970.14</v>
       </c>
@@ -5617,7 +5625,7 @@
         <v>2.7474728856072161</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="20" t="s">
         <v>134</v>
       </c>
@@ -5625,7 +5633,7 @@
         <f>+Earnings_Comparison!B26</f>
         <v>MA</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="53">
         <f>+Earnings_Comparison!E26</f>
         <v>1077.05</v>
       </c>
@@ -5634,7 +5642,7 @@
         <v>2.2072751628677389</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>135</v>
       </c>
@@ -5642,7 +5650,7 @@
         <f>+Earnings_Comparison!B27</f>
         <v>MI</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="53">
         <f>+Earnings_Comparison!E27</f>
         <v>852.95</v>
       </c>
@@ -5651,7 +5659,7 @@
         <v>2.0684340018956693</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>136</v>
       </c>
@@ -5659,7 +5667,7 @@
         <f>+Earnings_Comparison!B28</f>
         <v>MN</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="53">
         <f>+Earnings_Comparison!E28</f>
         <v>977.99</v>
       </c>
@@ -5668,7 +5676,7 @@
         <v>4.6112733569586339</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>137</v>
       </c>
@@ -5676,7 +5684,7 @@
         <f>+Earnings_Comparison!B29</f>
         <v>MS</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="53">
         <f>+Earnings_Comparison!E29</f>
         <v>715.97</v>
       </c>
@@ -5685,7 +5693,7 @@
         <v>0.43070583926916317</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>138</v>
       </c>
@@ -5693,7 +5701,7 @@
         <f>+Earnings_Comparison!B30</f>
         <v>MO</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="53">
         <f>+Earnings_Comparison!E30</f>
         <v>822.17</v>
       </c>
@@ -5702,7 +5710,7 @@
         <v>8.2527762291400464</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>139</v>
       </c>
@@ -5710,7 +5718,7 @@
         <f>+Earnings_Comparison!B31</f>
         <v>MT</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="53">
         <f>+Earnings_Comparison!E31</f>
         <v>778.08</v>
       </c>
@@ -5719,7 +5727,7 @@
         <v>3.449378719085483</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>140</v>
       </c>
@@ -5727,7 +5735,7 @@
         <f>+Earnings_Comparison!B32</f>
         <v>NE</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="53">
         <f>+Earnings_Comparison!E32</f>
         <v>836.97</v>
       </c>
@@ -5736,7 +5744,7 @@
         <v>5.1199730820937983</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>141</v>
       </c>
@@ -5744,7 +5752,7 @@
         <f>+Earnings_Comparison!B33</f>
         <v>NV</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="53">
         <f>+Earnings_Comparison!E33</f>
         <v>775.73</v>
       </c>
@@ -5753,7 +5761,7 @@
         <v>1.9047499961891479</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>142</v>
       </c>
@@ -5761,7 +5769,7 @@
         <f>+Earnings_Comparison!B34</f>
         <v>NH</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="53">
         <f>+Earnings_Comparison!E34</f>
         <v>874.79</v>
       </c>
@@ -5770,7 +5778,7 @@
         <v>0.8858237823111903</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>143</v>
       </c>
@@ -5778,7 +5786,7 @@
         <f>+Earnings_Comparison!B35</f>
         <v>NJ</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="53">
         <f>+Earnings_Comparison!E35</f>
         <v>1000.84</v>
       </c>
@@ -5787,7 +5795,7 @@
         <v>3.9691704339658074</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>144</v>
       </c>
@@ -5795,7 +5803,7 @@
         <f>+Earnings_Comparison!B36</f>
         <v>NM</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="53">
         <f>+Earnings_Comparison!E36</f>
         <v>725.9</v>
       </c>
@@ -5804,7 +5812,7 @@
         <v>4.2103089981685216</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>145</v>
       </c>
@@ -5812,7 +5820,7 @@
         <f>+Earnings_Comparison!B37</f>
         <v>NY</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="53">
         <f>+Earnings_Comparison!E37</f>
         <v>1013.7</v>
       </c>
@@ -5821,7 +5829,7 @@
         <v>1.9626545183159871</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>146</v>
       </c>
@@ -5829,7 +5837,7 @@
         <f>+Earnings_Comparison!B38</f>
         <v>NC</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="53">
         <f>+Earnings_Comparison!E38</f>
         <v>841.46</v>
       </c>
@@ -5838,7 +5846,7 @@
         <v>2.9890354333622637</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
@@ -5846,7 +5854,7 @@
         <f>+Earnings_Comparison!B39</f>
         <v>ND</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="53">
         <f>+Earnings_Comparison!E39</f>
         <v>942.73</v>
       </c>
@@ -5855,7 +5863,7 @@
         <v>3.9409293472148166</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>148</v>
       </c>
@@ -5863,7 +5871,7 @@
         <f>+Earnings_Comparison!B40</f>
         <v>OH</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="53">
         <f>+Earnings_Comparison!E40</f>
         <v>822.17</v>
       </c>
@@ -5872,7 +5880,7 @@
         <v>0.99777586777844984</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>149</v>
       </c>
@@ -5880,7 +5888,7 @@
         <f>+Earnings_Comparison!B41</f>
         <v>OK</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="53">
         <f>+Earnings_Comparison!E41</f>
         <v>833.69</v>
       </c>
@@ -5889,7 +5897,7 @@
         <v>5.4435964424423</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>150</v>
       </c>
@@ -5897,7 +5905,7 @@
         <f>+Earnings_Comparison!B42</f>
         <v>OR</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="53">
         <f>+Earnings_Comparison!E42</f>
         <v>888.79</v>
       </c>
@@ -5906,7 +5914,7 @@
         <v>3.412728385519781</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>151</v>
       </c>
@@ -5914,7 +5922,7 @@
         <f>+Earnings_Comparison!B43</f>
         <v>PA</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="53">
         <f>+Earnings_Comparison!E43</f>
         <v>848.64</v>
       </c>
@@ -5923,7 +5931,7 @@
         <v>0.33010723046997814</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>152</v>
       </c>
@@ -5931,7 +5939,7 @@
         <f>+Earnings_Comparison!B44</f>
         <v>RI</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="53">
         <f>+Earnings_Comparison!E44</f>
         <v>877.48</v>
       </c>
@@ -5940,7 +5948,7 @@
         <v>2.34390400101121</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>153</v>
       </c>
@@ -5948,7 +5956,7 @@
         <f>+Earnings_Comparison!B45</f>
         <v>SC</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C44" s="53">
         <f>+Earnings_Comparison!E45</f>
         <v>797.81</v>
       </c>
@@ -5957,7 +5965,7 @@
         <v>3.9592501859836426</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>154</v>
       </c>
@@ -5965,7 +5973,7 @@
         <f>+Earnings_Comparison!B46</f>
         <v>SD</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="53">
         <f>+Earnings_Comparison!E46</f>
         <v>743.97</v>
       </c>
@@ -5974,7 +5982,7 @@
         <v>0.51854527674572992</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>155</v>
       </c>
@@ -5982,7 +5990,7 @@
         <f>+Earnings_Comparison!B47</f>
         <v>TN</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="53">
         <f>+Earnings_Comparison!E47</f>
         <v>805.98</v>
       </c>
@@ -5991,7 +5999,7 @@
         <v>2.4702090932969378</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>156</v>
       </c>
@@ -5999,7 +6007,7 @@
         <f>+Earnings_Comparison!B48</f>
         <v>TX</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C47" s="53">
         <f>+Earnings_Comparison!E48</f>
         <v>930.75</v>
       </c>
@@ -6008,7 +6016,7 @@
         <v>5.0785595065279132</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>157</v>
       </c>
@@ -6016,7 +6024,7 @@
         <f>+Earnings_Comparison!B49</f>
         <v>UT</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="53">
         <f>+Earnings_Comparison!E49</f>
         <v>903.21</v>
       </c>
@@ -6025,7 +6033,7 @@
         <v>5.1228788880663068</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>158</v>
       </c>
@@ -6033,7 +6041,7 @@
         <f>+Earnings_Comparison!B50</f>
         <v>VT</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="53">
         <f>+Earnings_Comparison!E50</f>
         <v>821.14</v>
       </c>
@@ -6042,7 +6050,7 @@
         <v>-0.58111146522916712</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>159</v>
       </c>
@@ -6050,7 +6058,7 @@
         <f>+Earnings_Comparison!B51</f>
         <v>VA</v>
       </c>
-      <c r="C50" s="30">
+      <c r="C50" s="53">
         <f>+Earnings_Comparison!E51</f>
         <v>955.96</v>
       </c>
@@ -6059,7 +6067,7 @@
         <v>-0.38460703019946862</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>160</v>
       </c>
@@ -6067,7 +6075,7 @@
         <f>+Earnings_Comparison!B52</f>
         <v>WA</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="53">
         <f>+Earnings_Comparison!E52</f>
         <v>1109.08</v>
       </c>
@@ -6076,7 +6084,7 @@
         <v>4.9974356044612422</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>161</v>
       </c>
@@ -6084,7 +6092,7 @@
         <f>+Earnings_Comparison!B53</f>
         <v>WV</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="53">
         <f>+Earnings_Comparison!E53</f>
         <v>780.12</v>
       </c>
@@ -6093,7 +6101,7 @@
         <v>4.2933053876920368</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>162</v>
       </c>
@@ -6101,7 +6109,7 @@
         <f>+Earnings_Comparison!B54</f>
         <v>WI</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="53">
         <f>+Earnings_Comparison!E54</f>
         <v>839.95</v>
       </c>
@@ -6110,7 +6118,7 @@
         <v>1.9549776190133317</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>163</v>
       </c>
@@ -6118,7 +6126,7 @@
         <f>+Earnings_Comparison!B55</f>
         <v>WY</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="53">
         <f>+Earnings_Comparison!E55</f>
         <v>835.18</v>
       </c>
@@ -6147,36 +6155,36 @@
       <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="27.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="235" width="8" style="1" customWidth="1"/>
-    <col min="236" max="16384" width="9.140625" style="1"/>
+    <col min="236" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="49" t="s">
+    <row r="1" spans="1:32" ht="16" x14ac:dyDescent="0.2">
+      <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="50"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="D1" s="49"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.15">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>61</v>
       </c>
@@ -6186,10 +6194,10 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="43">
         <v>42552</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="44">
         <v>42917</v>
       </c>
       <c r="F4" s="10"/>
@@ -6200,7 +6208,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="40" t="s">
         <v>193</v>
       </c>
       <c r="K4" s="10"/>
@@ -6226,7 +6234,7 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
     </row>
-    <row r="5" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19">
         <v>1</v>
       </c>
@@ -6236,16 +6244,16 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <f>'July 2017_BLS Data Series'!H5</f>
         <v>782.13</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="41">
         <f>'July 2017_BLS Data Series'!T5</f>
         <v>799.46</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34">
+      <c r="F5" s="33"/>
+      <c r="G5" s="33">
         <f>D5/$G$61</f>
         <v>795.6450379008262</v>
       </c>
@@ -6261,7 +6269,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -6271,16 +6279,16 @@
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <f>'July 2017_BLS Data Series'!H6</f>
         <v>989.87</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="41">
         <f>'July 2017_BLS Data Series'!T6</f>
         <v>1027.1099999999999</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33">
         <f t="shared" ref="G6:G55" si="0">D6/$G$61</f>
         <v>1006.9747403460944</v>
       </c>
@@ -6296,7 +6304,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A7" s="19">
         <v>4</v>
       </c>
@@ -6306,16 +6314,16 @@
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <f>'July 2017_BLS Data Series'!H7</f>
         <v>814.28</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="41">
         <f>'July 2017_BLS Data Series'!T7</f>
         <v>898.1</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34">
+      <c r="F7" s="33"/>
+      <c r="G7" s="33">
         <f t="shared" si="0"/>
         <v>828.35058297454987</v>
       </c>
@@ -6331,7 +6339,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A8" s="19">
         <v>5</v>
       </c>
@@ -6341,16 +6349,16 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <f>'July 2017_BLS Data Series'!H8</f>
         <v>698.92</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="41">
         <f>'July 2017_BLS Data Series'!T8</f>
         <v>724.46</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34">
+      <c r="F8" s="33"/>
+      <c r="G8" s="33">
         <f t="shared" si="0"/>
         <v>710.99718702727864</v>
       </c>
@@ -6366,7 +6374,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>6</v>
       </c>
@@ -6376,16 +6384,16 @@
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="35">
         <f>'July 2017_BLS Data Series'!H9</f>
         <v>988.31</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="41">
         <f>'July 2017_BLS Data Series'!T9</f>
         <v>1061.28</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34">
+      <c r="F9" s="33"/>
+      <c r="G9" s="33">
         <f t="shared" si="0"/>
         <v>1005.387783882175</v>
       </c>
@@ -6401,7 +6409,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>8</v>
       </c>
@@ -6411,16 +6419,16 @@
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="35">
         <f>'July 2017_BLS Data Series'!H10</f>
         <v>899.76</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="41">
         <f>'July 2017_BLS Data Series'!T10</f>
         <v>953.57</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34">
+      <c r="F10" s="33"/>
+      <c r="G10" s="33">
         <f t="shared" si="0"/>
         <v>915.30765895905711</v>
       </c>
@@ -6436,7 +6444,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>9</v>
       </c>
@@ -6446,16 +6454,16 @@
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="35">
         <f>'July 2017_BLS Data Series'!H11</f>
         <v>1014.05</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="41">
         <f>'July 2017_BLS Data Series'!T11</f>
         <v>1058.95</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34">
+      <c r="F11" s="33"/>
+      <c r="G11" s="33">
         <f t="shared" si="0"/>
         <v>1031.5725655368453</v>
       </c>
@@ -6471,7 +6479,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A12" s="19">
         <v>10</v>
       </c>
@@ -6481,16 +6489,16 @@
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <f>'July 2017_BLS Data Series'!H12</f>
         <v>801.36</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="41">
         <f>'July 2017_BLS Data Series'!T12</f>
         <v>911.09</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34">
+      <c r="F12" s="33"/>
+      <c r="G12" s="33">
         <f t="shared" si="0"/>
         <v>815.20732815798658</v>
       </c>
@@ -6506,7 +6514,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>11</v>
       </c>
@@ -6516,16 +6524,16 @@
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="35">
         <f>'July 2017_BLS Data Series'!H13</f>
         <v>1358.65</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="41">
         <f>'July 2017_BLS Data Series'!T13</f>
         <v>1477.08</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34">
+      <c r="F13" s="33"/>
+      <c r="G13" s="33">
         <f t="shared" si="0"/>
         <v>1382.1271792975049</v>
       </c>
@@ -6541,7 +6549,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A14" s="19">
         <v>12</v>
       </c>
@@ -6551,16 +6559,16 @@
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="35">
         <f>'July 2017_BLS Data Series'!H14</f>
         <v>785.74</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="41">
         <f>'July 2017_BLS Data Series'!T14</f>
         <v>829.38</v>
       </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34">
+      <c r="F14" s="33"/>
+      <c r="G14" s="33">
         <f t="shared" si="0"/>
         <v>799.31741792310129</v>
       </c>
@@ -6576,7 +6584,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A15" s="19">
         <v>13</v>
       </c>
@@ -6586,16 +6594,16 @@
       <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="35">
         <f>'July 2017_BLS Data Series'!H15</f>
         <v>847.73</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="41">
         <f>'July 2017_BLS Data Series'!T15</f>
         <v>911.41</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34">
+      <c r="F15" s="33"/>
+      <c r="G15" s="33">
         <f t="shared" si="0"/>
         <v>862.37859176820655</v>
       </c>
@@ -6611,7 +6619,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -6621,16 +6629,16 @@
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="35">
         <f>'July 2017_BLS Data Series'!H16</f>
         <v>837.31</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <f>'July 2017_BLS Data Series'!T16</f>
         <v>898.78</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33">
         <f t="shared" si="0"/>
         <v>851.77853641305251</v>
       </c>
@@ -6646,7 +6654,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -6656,16 +6664,16 @@
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="35">
         <f>'July 2017_BLS Data Series'!H17</f>
         <v>735.6</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="41">
         <f>'July 2017_BLS Data Series'!T17</f>
         <v>770.56</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34">
+      <c r="F17" s="33"/>
+      <c r="G17" s="33">
         <f t="shared" si="0"/>
         <v>748.31100952507609</v>
       </c>
@@ -6681,7 +6689,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -6691,16 +6699,16 @@
       <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="35">
         <f>'July 2017_BLS Data Series'!H18</f>
         <v>900.92</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="41">
         <f>'July 2017_BLS Data Series'!T18</f>
         <v>927.77</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34">
+      <c r="F18" s="33"/>
+      <c r="G18" s="33">
         <f t="shared" si="0"/>
         <v>916.48770350915106</v>
       </c>
@@ -6716,7 +6724,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -6726,16 +6734,16 @@
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="35">
         <f>'July 2017_BLS Data Series'!H19</f>
         <v>811.63</v>
       </c>
-      <c r="E19" s="42">
+      <c r="E19" s="41">
         <f>'July 2017_BLS Data Series'!T19</f>
         <v>865.56</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34">
+      <c r="F19" s="33"/>
+      <c r="G19" s="33">
         <f t="shared" si="0"/>
         <v>825.65479154545608</v>
       </c>
@@ -6751,7 +6759,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -6761,16 +6769,16 @@
       <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="35">
         <f>'July 2017_BLS Data Series'!H20</f>
         <v>809.8</v>
       </c>
-      <c r="E20" s="42">
+      <c r="E20" s="41">
         <f>'July 2017_BLS Data Series'!T20</f>
         <v>811.98</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33">
         <f t="shared" si="0"/>
         <v>823.79316953970442</v>
       </c>
@@ -6786,7 +6794,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -6796,16 +6804,16 @@
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="35">
         <f>'July 2017_BLS Data Series'!H21</f>
         <v>766.92</v>
       </c>
-      <c r="E21" s="42">
+      <c r="E21" s="41">
         <f>'July 2017_BLS Data Series'!T21</f>
         <v>798.91</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33">
         <f t="shared" si="0"/>
         <v>780.17221237761191</v>
       </c>
@@ -6821,7 +6829,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -6831,16 +6839,16 @@
       <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="35">
         <f>'July 2017_BLS Data Series'!H22</f>
         <v>747.65</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="41">
         <f>'July 2017_BLS Data Series'!T22</f>
         <v>774.84</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33">
         <f t="shared" si="0"/>
         <v>760.56923092906891</v>
       </c>
@@ -6856,7 +6864,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -6866,16 +6874,16 @@
       <c r="C23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="35">
         <f>'July 2017_BLS Data Series'!H23</f>
         <v>789.4</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="41">
         <f>'July 2017_BLS Data Series'!T23</f>
         <v>828.21</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34">
+      <c r="F23" s="33"/>
+      <c r="G23" s="33">
         <f t="shared" si="0"/>
         <v>803.04066193460449</v>
       </c>
@@ -6891,7 +6899,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -6901,16 +6909,16 @@
       <c r="C24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="35">
         <f>'July 2017_BLS Data Series'!H24</f>
         <v>740.18</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="41">
         <f>'July 2017_BLS Data Series'!T24</f>
         <v>785.22</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34">
+      <c r="F24" s="33"/>
+      <c r="G24" s="33">
         <f t="shared" si="0"/>
         <v>752.97015093837786</v>
       </c>
@@ -6926,7 +6934,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -6936,16 +6944,16 @@
       <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="35">
         <f>'July 2017_BLS Data Series'!H25</f>
         <v>928.16</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="41">
         <f>'July 2017_BLS Data Series'!T25</f>
         <v>970.14</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34">
+      <c r="F25" s="33"/>
+      <c r="G25" s="33">
         <f t="shared" si="0"/>
         <v>944.19840484066685</v>
       </c>
@@ -6961,7 +6969,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -6971,16 +6979,16 @@
       <c r="C26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="35">
         <f>'July 2017_BLS Data Series'!H26</f>
         <v>1035.8900000000001</v>
       </c>
-      <c r="E26" s="42">
+      <c r="E26" s="41">
         <f>'July 2017_BLS Data Series'!T26</f>
         <v>1077.05</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34">
+      <c r="F26" s="33"/>
+      <c r="G26" s="33">
         <f t="shared" si="0"/>
         <v>1053.7899560317171</v>
       </c>
@@ -6996,7 +7004,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -7006,16 +7014,16 @@
       <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="35">
         <f>'July 2017_BLS Data Series'!H27</f>
         <v>821.47</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="41">
         <f>'July 2017_BLS Data Series'!T27</f>
         <v>852.95</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34">
+      <c r="F27" s="33"/>
+      <c r="G27" s="33">
         <f t="shared" si="0"/>
         <v>835.66482462556314</v>
       </c>
@@ -7031,7 +7039,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -7041,16 +7049,16 @@
       <c r="C28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="35">
         <f>'July 2017_BLS Data Series'!H28</f>
         <v>919</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="41">
         <f>'July 2017_BLS Data Series'!T28</f>
         <v>977.99</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34">
+      <c r="F28" s="33"/>
+      <c r="G28" s="33">
         <f t="shared" si="0"/>
         <v>934.8801220140632</v>
       </c>
@@ -7066,7 +7074,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -7076,16 +7084,16 @@
       <c r="C29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="35">
         <f>'July 2017_BLS Data Series'!H29</f>
         <v>700.79</v>
       </c>
-      <c r="E29" s="42">
+      <c r="E29" s="41">
         <f>'July 2017_BLS Data Series'!T29</f>
         <v>715.97</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34">
+      <c r="F29" s="33"/>
+      <c r="G29" s="33">
         <f t="shared" si="0"/>
         <v>712.8995002244128</v>
       </c>
@@ -7101,7 +7109,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -7111,16 +7119,16 @@
       <c r="C30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="35">
         <f>'July 2017_BLS Data Series'!H30</f>
         <v>746.59</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="41">
         <f>'July 2017_BLS Data Series'!T30</f>
         <v>822.17</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34">
+      <c r="F30" s="33"/>
+      <c r="G30" s="33">
         <f t="shared" si="0"/>
         <v>759.49091435743139</v>
       </c>
@@ -7136,7 +7144,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -7146,16 +7154,16 @@
       <c r="C31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="35">
         <f>'July 2017_BLS Data Series'!H31</f>
         <v>739.36</v>
       </c>
-      <c r="E31" s="42">
+      <c r="E31" s="41">
         <f>'July 2017_BLS Data Series'!T31</f>
         <v>778.08</v>
       </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34">
+      <c r="F31" s="33"/>
+      <c r="G31" s="33">
         <f t="shared" si="0"/>
         <v>752.13598151503572</v>
       </c>
@@ -7171,7 +7179,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -7181,16 +7189,16 @@
       <c r="C32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="35">
         <f>'July 2017_BLS Data Series'!H32</f>
         <v>782.68</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="41">
         <f>'July 2017_BLS Data Series'!T32</f>
         <v>836.97</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34">
+      <c r="F32" s="33"/>
+      <c r="G32" s="33">
         <f t="shared" si="0"/>
         <v>796.20454178233615</v>
       </c>
@@ -7206,7 +7214,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -7216,16 +7224,16 @@
       <c r="C33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="35">
         <f>'July 2017_BLS Data Series'!H33</f>
         <v>748.3</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="41">
         <f>'July 2017_BLS Data Series'!T33</f>
         <v>775.73</v>
       </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34">
+      <c r="F33" s="33"/>
+      <c r="G33" s="33">
         <f t="shared" si="0"/>
         <v>761.2304627890353</v>
       </c>
@@ -7241,7 +7249,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -7251,16 +7259,16 @@
       <c r="C34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="35">
         <f>'July 2017_BLS Data Series'!H34</f>
         <v>852.38</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="41">
         <f>'July 2017_BLS Data Series'!T34</f>
         <v>874.79</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34">
+      <c r="F34" s="33"/>
+      <c r="G34" s="33">
         <f t="shared" si="0"/>
         <v>867.10894276642784</v>
       </c>
@@ -7276,7 +7284,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -7286,16 +7294,16 @@
       <c r="C35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="35">
         <f>'July 2017_BLS Data Series'!H35</f>
         <v>946.28</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="41">
         <f>'July 2017_BLS Data Series'!T35</f>
         <v>1000.84</v>
       </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34">
+      <c r="F35" s="33"/>
+      <c r="G35" s="33">
         <f t="shared" si="0"/>
         <v>962.63151453696162</v>
       </c>
@@ -7311,7 +7319,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -7321,16 +7329,16 @@
       <c r="C36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="35">
         <f>'July 2017_BLS Data Series'!H36</f>
         <v>684.74</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="41">
         <f>'July 2017_BLS Data Series'!T36</f>
         <v>725.9</v>
       </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34">
+      <c r="F36" s="33"/>
+      <c r="G36" s="33">
         <f t="shared" si="0"/>
         <v>696.57215968216497</v>
       </c>
@@ -7346,7 +7354,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -7356,16 +7364,16 @@
       <c r="C37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="35">
         <f>'July 2017_BLS Data Series'!H37</f>
         <v>977.3</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="41">
         <f>'July 2017_BLS Data Series'!T37</f>
         <v>1013.7</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34">
+      <c r="F37" s="33"/>
+      <c r="G37" s="33">
         <f t="shared" si="0"/>
         <v>994.18753345412836</v>
       </c>
@@ -7381,7 +7389,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -7391,16 +7399,16 @@
       <c r="C38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="35">
         <f>'July 2017_BLS Data Series'!H38</f>
         <v>803.16</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="41">
         <f>'July 2017_BLS Data Series'!T38</f>
         <v>841.46</v>
       </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34">
+      <c r="F38" s="33"/>
+      <c r="G38" s="33">
         <f t="shared" si="0"/>
         <v>817.03843177020133</v>
       </c>
@@ -7416,7 +7424,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -7426,16 +7434,16 @@
       <c r="C39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="35">
         <f>'July 2017_BLS Data Series'!H39</f>
         <v>891.58</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="41">
         <f>'July 2017_BLS Data Series'!T39</f>
         <v>942.73</v>
       </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34">
+      <c r="F39" s="33"/>
+      <c r="G39" s="33">
         <f t="shared" si="0"/>
         <v>906.98631032132596</v>
       </c>
@@ -7451,7 +7459,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="19">
         <v>39</v>
       </c>
@@ -7461,16 +7469,16 @@
       <c r="C40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="35">
         <f>'July 2017_BLS Data Series'!H40</f>
         <v>800.22</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="41">
         <f>'July 2017_BLS Data Series'!T40</f>
         <v>822.17</v>
       </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34">
+      <c r="F40" s="33"/>
+      <c r="G40" s="33">
         <f t="shared" si="0"/>
         <v>814.04762920358405</v>
       </c>
@@ -7486,7 +7494,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -7496,16 +7504,16 @@
       <c r="C41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="35">
         <f>'July 2017_BLS Data Series'!H41</f>
         <v>777.22</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E41" s="41">
         <f>'July 2017_BLS Data Series'!T41</f>
         <v>833.69</v>
       </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34">
+      <c r="F41" s="33"/>
+      <c r="G41" s="33">
         <f t="shared" si="0"/>
         <v>790.65019415861832</v>
       </c>
@@ -7521,7 +7529,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -7531,16 +7539,16 @@
       <c r="C42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="35">
         <f>'July 2017_BLS Data Series'!H42</f>
         <v>844.86</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="41">
         <f>'July 2017_BLS Data Series'!T42</f>
         <v>888.79</v>
       </c>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34">
+      <c r="F42" s="33"/>
+      <c r="G42" s="33">
         <f t="shared" si="0"/>
         <v>859.45899878650869</v>
       </c>
@@ -7556,7 +7564,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -7566,16 +7574,16 @@
       <c r="C43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="35">
         <f>'July 2017_BLS Data Series'!H43</f>
         <v>831.48</v>
       </c>
-      <c r="E43" s="42">
+      <c r="E43" s="41">
         <f>'July 2017_BLS Data Series'!T43</f>
         <v>848.64</v>
       </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34">
+      <c r="F43" s="33"/>
+      <c r="G43" s="33">
         <f t="shared" si="0"/>
         <v>845.84779526904606</v>
       </c>
@@ -7591,7 +7599,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="19">
         <v>44</v>
       </c>
@@ -7601,16 +7609,16 @@
       <c r="C44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="35">
         <f>'July 2017_BLS Data Series'!H44</f>
         <v>842.82</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="41">
         <f>'July 2017_BLS Data Series'!T44</f>
         <v>877.48</v>
       </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34">
+      <c r="F44" s="33"/>
+      <c r="G44" s="33">
         <f t="shared" si="0"/>
         <v>857.38374802599867</v>
       </c>
@@ -7626,7 +7634,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="19">
         <v>45</v>
       </c>
@@ -7636,16 +7644,16 @@
       <c r="C45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="35">
         <f>'July 2017_BLS Data Series'!H45</f>
         <v>754.39</v>
       </c>
-      <c r="E45" s="42">
+      <c r="E45" s="41">
         <f>'July 2017_BLS Data Series'!T45</f>
         <v>797.81</v>
       </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34">
+      <c r="F45" s="33"/>
+      <c r="G45" s="33">
         <f t="shared" si="0"/>
         <v>767.42569667702844</v>
       </c>
@@ -7661,7 +7669,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="19">
         <v>46</v>
       </c>
@@ -7671,16 +7679,16 @@
       <c r="C46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="35">
         <f>'July 2017_BLS Data Series'!H46</f>
         <v>727.56</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="41">
         <f>'July 2017_BLS Data Series'!T46</f>
         <v>743.97</v>
       </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34">
+      <c r="F46" s="33"/>
+      <c r="G46" s="33">
         <f t="shared" si="0"/>
         <v>740.13208005718366</v>
       </c>
@@ -7696,7 +7704,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="19">
         <v>47</v>
       </c>
@@ -7706,16 +7714,16 @@
       <c r="C47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="35">
         <f>'July 2017_BLS Data Series'!H47</f>
         <v>773.19</v>
       </c>
-      <c r="E47" s="42">
+      <c r="E47" s="41">
         <f>'July 2017_BLS Data Series'!T47</f>
         <v>805.98</v>
       </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34">
+      <c r="F47" s="33"/>
+      <c r="G47" s="33">
         <f t="shared" si="0"/>
         <v>786.55055662682651</v>
       </c>
@@ -7731,7 +7739,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="19">
         <v>48</v>
       </c>
@@ -7741,16 +7749,16 @@
       <c r="C48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48" s="35">
         <f>'July 2017_BLS Data Series'!H48</f>
         <v>870.72</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="41">
         <f>'July 2017_BLS Data Series'!T48</f>
         <v>930.75</v>
       </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34">
+      <c r="F48" s="33"/>
+      <c r="G48" s="33">
         <f t="shared" si="0"/>
         <v>885.76585401532657</v>
       </c>
@@ -7766,7 +7774,7 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="19">
         <v>49</v>
       </c>
@@ -7776,16 +7784,16 @@
       <c r="C49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="36">
+      <c r="D49" s="35">
         <f>'July 2017_BLS Data Series'!H49</f>
         <v>844.6</v>
       </c>
-      <c r="E49" s="42">
+      <c r="E49" s="41">
         <f>'July 2017_BLS Data Series'!T49</f>
         <v>903.21</v>
       </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34">
+      <c r="F49" s="33"/>
+      <c r="G49" s="33">
         <f t="shared" si="0"/>
         <v>859.19450604252211</v>
       </c>
@@ -7801,7 +7809,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="19">
         <v>50</v>
       </c>
@@ -7811,16 +7819,16 @@
       <c r="C50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="36">
+      <c r="D50" s="35">
         <f>'July 2017_BLS Data Series'!H50</f>
         <v>811.91</v>
       </c>
-      <c r="E50" s="42">
+      <c r="E50" s="41">
         <f>'July 2017_BLS Data Series'!T50</f>
         <v>821.14</v>
       </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34">
+      <c r="F50" s="33"/>
+      <c r="G50" s="33">
         <f t="shared" si="0"/>
         <v>825.93962988513385</v>
       </c>
@@ -7836,7 +7844,7 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="19">
         <v>51</v>
       </c>
@@ -7846,16 +7854,16 @@
       <c r="C51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="35">
         <f>'July 2017_BLS Data Series'!H51</f>
         <v>943.35</v>
       </c>
-      <c r="E51" s="42">
+      <c r="E51" s="41">
         <f>'July 2017_BLS Data Series'!T51</f>
         <v>955.96</v>
       </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34">
+      <c r="F51" s="33"/>
+      <c r="G51" s="33">
         <f t="shared" si="0"/>
         <v>959.65088476818994</v>
       </c>
@@ -7871,7 +7879,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="19">
         <v>53</v>
       </c>
@@ -7881,16 +7889,16 @@
       <c r="C52" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="35">
         <f>'July 2017_BLS Data Series'!H52</f>
         <v>1038.3499999999999</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="41">
         <f>'July 2017_BLS Data Series'!T52</f>
         <v>1109.08</v>
       </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34">
+      <c r="F52" s="33"/>
+      <c r="G52" s="33">
         <f t="shared" si="0"/>
         <v>1056.2924643017436</v>
       </c>
@@ -7906,7 +7914,7 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="19">
         <v>54</v>
       </c>
@@ -7916,16 +7924,16 @@
       <c r="C53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="35">
         <f>'July 2017_BLS Data Series'!H53</f>
         <v>735.3</v>
       </c>
-      <c r="E53" s="42">
+      <c r="E53" s="41">
         <f>'July 2017_BLS Data Series'!T53</f>
         <v>780.12</v>
       </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34">
+      <c r="F53" s="33"/>
+      <c r="G53" s="33">
         <f t="shared" si="0"/>
         <v>748.00582558970689</v>
       </c>
@@ -7941,7 +7949,7 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="19">
         <v>55</v>
       </c>
@@ -7951,16 +7959,16 @@
       <c r="C54" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="35">
         <f>'July 2017_BLS Data Series'!H54</f>
         <v>809.85</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E54" s="41">
         <f>'July 2017_BLS Data Series'!T54</f>
         <v>839.95</v>
       </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34">
+      <c r="F54" s="33"/>
+      <c r="G54" s="33">
         <f t="shared" si="0"/>
         <v>823.84403352893264</v>
       </c>
@@ -7976,7 +7984,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="19">
         <v>56</v>
       </c>
@@ -7986,16 +7994,16 @@
       <c r="C55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="35">
         <f>'July 2017_BLS Data Series'!H55</f>
         <v>757.91</v>
       </c>
-      <c r="E55" s="42">
+      <c r="E55" s="41">
         <f>'July 2017_BLS Data Series'!T55</f>
         <v>835.18</v>
       </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34">
+      <c r="F55" s="33"/>
+      <c r="G55" s="33">
         <f t="shared" si="0"/>
         <v>771.00652151869269</v>
       </c>
@@ -8014,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="11"/>
@@ -8023,21 +8031,21 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C57" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="44">
+      <c r="D57" s="43">
         <v>42552</v>
       </c>
-      <c r="E57" s="45">
+      <c r="E57" s="44">
         <v>42917</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="11"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="41" t="s">
+      <c r="J57" s="40" t="s">
         <v>193</v>
       </c>
       <c r="K57" s="8"/>
@@ -8046,14 +8054,14 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="C58" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D58" s="43">
+      <c r="D58" s="42">
         <v>884.42</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="42">
         <v>909.42</v>
       </c>
       <c r="F58" s="9"/>
@@ -8073,7 +8081,7 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
@@ -8085,7 +8093,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C60" s="7" t="s">
         <v>55</v>
       </c>
@@ -8099,14 +8107,14 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="43">
+      <c r="D61" s="42">
         <v>240.62799999999999</v>
       </c>
-      <c r="E61" s="43">
+      <c r="E61" s="42">
         <v>244.786</v>
       </c>
       <c r="F61" s="9"/>
@@ -8120,7 +8128,7 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -8132,7 +8140,7 @@
       <c r="K62"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -8144,11 +8152,11 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8176,3290 +8184,3290 @@
       <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" style="47" customWidth="1"/>
-    <col min="2" max="255" width="8" style="47" customWidth="1"/>
-    <col min="256" max="16384" width="9.140625" style="47"/>
+    <col min="1" max="1" width="23" style="46" customWidth="1"/>
+    <col min="2" max="255" width="8" style="46" customWidth="1"/>
+    <col min="256" max="16384" width="8.83203125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-    </row>
-    <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+    </row>
+    <row r="4" spans="1:25" ht="28" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="L4" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="M4" s="32" t="s">
+      <c r="M4" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="N4" s="32" t="s">
+      <c r="N4" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="P4" s="32" t="s">
+      <c r="P4" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="R4" s="32" t="s">
+      <c r="R4" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="S4" s="32" t="s">
+      <c r="S4" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="T4" s="32" t="s">
+      <c r="T4" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="U4" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="V4" s="32" t="s">
+      <c r="V4" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="W4" s="32" t="s">
+      <c r="W4" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="X4" s="32" t="s">
+      <c r="X4" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="Y4" s="32" t="s">
+      <c r="Y4" s="31" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:25" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>768.58</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>768.96</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <v>760.77</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>777.15</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="35">
         <v>786.21</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="35">
         <v>778.26</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="35">
         <v>782.13</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="35">
         <v>771.37</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="35">
         <v>778.22</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="35">
         <v>801.36</v>
       </c>
-      <c r="L5" s="36">
+      <c r="L5" s="35">
         <v>780.57</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="35">
         <v>783.13</v>
       </c>
-      <c r="N5" s="36">
+      <c r="N5" s="35">
         <v>795.44</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="35">
         <v>788.25</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="35">
         <v>785.07</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="35">
         <v>800.8</v>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="35">
         <v>790.24</v>
       </c>
-      <c r="S5" s="36">
+      <c r="S5" s="35">
         <v>784.01</v>
       </c>
-      <c r="T5" s="36">
+      <c r="T5" s="35">
         <v>799.46</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>935.32</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>951.48</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>955.89</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>959.92</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>965.81</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>961.19</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="35">
         <v>989.87</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="35">
         <v>986.95</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <v>974.63</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="35">
         <v>1001.32</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="35">
         <v>981.74</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="35">
         <v>976.29</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="35">
         <v>975.07</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="35">
         <v>966.65</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="35">
         <v>978.59</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="35">
         <v>987.56</v>
       </c>
-      <c r="R6" s="36">
+      <c r="R6" s="35">
         <v>966.38</v>
       </c>
-      <c r="S6" s="36">
+      <c r="S6" s="35">
         <v>988.53</v>
       </c>
-      <c r="T6" s="36">
+      <c r="T6" s="35">
         <v>1027.1099999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>803.06</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>810.54</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <v>813.6</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="35">
         <v>820.46</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="35">
         <v>841.12</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <v>817.69</v>
       </c>
-      <c r="H7" s="36">
+      <c r="H7" s="35">
         <v>814.28</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="35">
         <v>826.58</v>
       </c>
-      <c r="J7" s="36">
+      <c r="J7" s="35">
         <v>825.56</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="35">
         <v>848.07</v>
       </c>
-      <c r="L7" s="36">
+      <c r="L7" s="35">
         <v>831.74</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="35">
         <v>827.66</v>
       </c>
-      <c r="N7" s="36">
+      <c r="N7" s="35">
         <v>857.44</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="35">
         <v>856.03</v>
       </c>
-      <c r="P7" s="36">
+      <c r="P7" s="35">
         <v>849.34</v>
       </c>
-      <c r="Q7" s="36">
+      <c r="Q7" s="35">
         <v>884.1</v>
       </c>
-      <c r="R7" s="36">
+      <c r="R7" s="35">
         <v>862.5</v>
       </c>
-      <c r="S7" s="36">
+      <c r="S7" s="35">
         <v>858.48</v>
       </c>
-      <c r="T7" s="36">
+      <c r="T7" s="35">
         <v>898.1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>675.35</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>673.93</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <v>666.99</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="35">
         <v>677.66</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="35">
         <v>687.37</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>685.25</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="35">
         <v>698.92</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="35">
         <v>688.4</v>
       </c>
-      <c r="J8" s="36">
+      <c r="J8" s="35">
         <v>686.39</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="35">
         <v>706.15</v>
       </c>
-      <c r="L8" s="36">
+      <c r="L8" s="35">
         <v>694.19</v>
       </c>
-      <c r="M8" s="36">
+      <c r="M8" s="35">
         <v>697.94</v>
       </c>
-      <c r="N8" s="36">
+      <c r="N8" s="35">
         <v>703.11</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="35">
         <v>703.82</v>
       </c>
-      <c r="P8" s="36">
+      <c r="P8" s="35">
         <v>702.45</v>
       </c>
-      <c r="Q8" s="36">
+      <c r="Q8" s="35">
         <v>719.32</v>
       </c>
-      <c r="R8" s="36">
+      <c r="R8" s="35">
         <v>707.92</v>
       </c>
-      <c r="S8" s="36">
+      <c r="S8" s="35">
         <v>713.01</v>
       </c>
-      <c r="T8" s="36">
+      <c r="T8" s="35">
         <v>724.46</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>971.28</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>978.58</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="35">
         <v>970.49</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="35">
         <v>979.95</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="35">
         <v>1009.66</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <v>980.64</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="35">
         <v>988.31</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <v>992.44</v>
       </c>
-      <c r="J9" s="36">
+      <c r="J9" s="35">
         <v>998.13</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="35">
         <v>1036.7</v>
       </c>
-      <c r="L9" s="36">
+      <c r="L9" s="35">
         <v>1001.52</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="35">
         <v>1004.45</v>
       </c>
-      <c r="N9" s="36">
+      <c r="N9" s="35">
         <v>1028.79</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="35">
         <v>1007.17</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="35">
         <v>1010.61</v>
       </c>
-      <c r="Q9" s="36">
+      <c r="Q9" s="35">
         <v>1043.6500000000001</v>
       </c>
-      <c r="R9" s="36">
+      <c r="R9" s="35">
         <v>1020.43</v>
       </c>
-      <c r="S9" s="36">
+      <c r="S9" s="35">
         <v>1020.3</v>
       </c>
-      <c r="T9" s="36">
+      <c r="T9" s="35">
         <v>1061.28</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>915.49</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>912</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="35">
         <v>909.42</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="35">
         <v>910.34</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="35">
         <v>925.81</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <v>903.16</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="35">
         <v>899.76</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="35">
         <v>899.08</v>
       </c>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <v>901.81</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="35">
         <v>931.27</v>
       </c>
-      <c r="L10" s="36">
+      <c r="L10" s="35">
         <v>897.77</v>
       </c>
-      <c r="M10" s="36">
+      <c r="M10" s="35">
         <v>891.38</v>
       </c>
-      <c r="N10" s="36">
+      <c r="N10" s="35">
         <v>904.2</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="35">
         <v>899.7</v>
       </c>
-      <c r="P10" s="36">
+      <c r="P10" s="35">
         <v>896.2</v>
       </c>
-      <c r="Q10" s="36">
+      <c r="Q10" s="35">
         <v>931.39</v>
       </c>
-      <c r="R10" s="36">
+      <c r="R10" s="35">
         <v>917.33</v>
       </c>
-      <c r="S10" s="36">
+      <c r="S10" s="35">
         <v>920.37</v>
       </c>
-      <c r="T10" s="36">
+      <c r="T10" s="35">
         <v>953.57</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>1005.3</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="35">
         <v>1003.59</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="35">
         <v>999.32</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="35">
         <v>1019.37</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="35">
         <v>1044.1400000000001</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <v>1009.34</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="35">
         <v>1014.05</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="35">
         <v>1021.1</v>
       </c>
-      <c r="J11" s="36">
+      <c r="J11" s="35">
         <v>1029.8800000000001</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="35">
         <v>1058.49</v>
       </c>
-      <c r="L11" s="36">
+      <c r="L11" s="35">
         <v>1030.21</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="35">
         <v>1033.24</v>
       </c>
-      <c r="N11" s="36">
+      <c r="N11" s="35">
         <v>1056.83</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="35">
         <v>1032.9000000000001</v>
       </c>
-      <c r="P11" s="36">
+      <c r="P11" s="35">
         <v>1032.73</v>
       </c>
-      <c r="Q11" s="36">
+      <c r="Q11" s="35">
         <v>1065.93</v>
       </c>
-      <c r="R11" s="36">
+      <c r="R11" s="35">
         <v>1042.6099999999999</v>
       </c>
-      <c r="S11" s="36">
+      <c r="S11" s="35">
         <v>1034.21</v>
       </c>
-      <c r="T11" s="36">
+      <c r="T11" s="35">
         <v>1058.95</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="35">
         <v>799.2</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>801.12</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="35">
         <v>807.53</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="35">
         <v>810.74</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="35">
         <v>811.85</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="35">
         <v>793.58</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="35">
         <v>801.36</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I12" s="35">
         <v>799.79</v>
       </c>
-      <c r="J12" s="36">
+      <c r="J12" s="35">
         <v>803.75</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="35">
         <v>843.16</v>
       </c>
-      <c r="L12" s="36">
+      <c r="L12" s="35">
         <v>819.89</v>
       </c>
-      <c r="M12" s="36">
+      <c r="M12" s="35">
         <v>816.19</v>
       </c>
-      <c r="N12" s="36">
+      <c r="N12" s="35">
         <v>833.02</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="35">
         <v>829.46</v>
       </c>
-      <c r="P12" s="36">
+      <c r="P12" s="35">
         <v>825.93</v>
       </c>
-      <c r="Q12" s="36">
+      <c r="Q12" s="35">
         <v>860.6</v>
       </c>
-      <c r="R12" s="36">
+      <c r="R12" s="35">
         <v>814.93</v>
       </c>
-      <c r="S12" s="36">
+      <c r="S12" s="35">
         <v>893.12</v>
       </c>
-      <c r="T12" s="36">
+      <c r="T12" s="35">
         <v>911.09</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="35">
         <v>1287.26</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="35">
         <v>1304.69</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="35">
         <v>1305.9100000000001</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="35">
         <v>1332.86</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="35">
         <v>1411.96</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="35">
         <v>1347.46</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="35">
         <v>1358.65</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="35">
         <v>1382.7</v>
       </c>
-      <c r="J13" s="36">
+      <c r="J13" s="35">
         <v>1383.08</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="35">
         <v>1456.36</v>
       </c>
-      <c r="L13" s="36">
+      <c r="L13" s="35">
         <v>1403.26</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="35">
         <v>1412.46</v>
       </c>
-      <c r="N13" s="36">
+      <c r="N13" s="35">
         <v>1480.46</v>
       </c>
-      <c r="O13" s="36">
+      <c r="O13" s="35">
         <v>1412.46</v>
       </c>
-      <c r="P13" s="36">
+      <c r="P13" s="35">
         <v>1412.35</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="Q13" s="35">
         <v>1454.91</v>
       </c>
-      <c r="R13" s="36">
+      <c r="R13" s="35">
         <v>1392.77</v>
       </c>
-      <c r="S13" s="36">
+      <c r="S13" s="35">
         <v>1385.65</v>
       </c>
-      <c r="T13" s="36">
+      <c r="T13" s="35">
         <v>1477.08</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="35">
         <v>777.37</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="35">
         <v>782.5</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="35">
         <v>790.7</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="35">
         <v>788.65</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="35">
         <v>800.22</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="35">
         <v>787.5</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="35">
         <v>785.74</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="35">
         <v>789.57</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="35">
         <v>791.28</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="35">
         <v>811.23</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="35">
         <v>805.46</v>
       </c>
-      <c r="M14" s="36">
+      <c r="M14" s="35">
         <v>811.91</v>
       </c>
-      <c r="N14" s="36">
+      <c r="N14" s="35">
         <v>822.16</v>
       </c>
-      <c r="O14" s="36">
+      <c r="O14" s="35">
         <v>817.71</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="35">
         <v>815.65</v>
       </c>
-      <c r="Q14" s="36">
+      <c r="Q14" s="35">
         <v>834.55</v>
       </c>
-      <c r="R14" s="36">
+      <c r="R14" s="35">
         <v>815.67</v>
       </c>
-      <c r="S14" s="36">
+      <c r="S14" s="35">
         <v>806.81</v>
       </c>
-      <c r="T14" s="36">
+      <c r="T14" s="35">
         <v>829.38</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <v>839.36</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="35">
         <v>842.17</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="35">
         <v>840.43</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="35">
         <v>842.51</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="35">
         <v>865.22</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="35">
         <v>843.88</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="35">
         <v>847.73</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="35">
         <v>847.7</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="35">
         <v>848.39</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="35">
         <v>882.46</v>
       </c>
-      <c r="L15" s="36">
+      <c r="L15" s="35">
         <v>857.12</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="35">
         <v>862.38</v>
       </c>
-      <c r="N15" s="36">
+      <c r="N15" s="35">
         <v>885.89</v>
       </c>
-      <c r="O15" s="36">
+      <c r="O15" s="35">
         <v>867.22</v>
       </c>
-      <c r="P15" s="36">
+      <c r="P15" s="35">
         <v>861.27</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="35">
         <v>890.53</v>
       </c>
-      <c r="R15" s="36">
+      <c r="R15" s="35">
         <v>868.02</v>
       </c>
-      <c r="S15" s="36">
+      <c r="S15" s="35">
         <v>900.28</v>
       </c>
-      <c r="T15" s="36">
+      <c r="T15" s="35">
         <v>911.41</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <v>824.26</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="35">
         <v>824.13</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="35">
         <v>820.54</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="35">
         <v>827.64</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="35">
         <v>851.76</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="35">
         <v>824.9</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="35">
         <v>837.31</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="35">
         <v>830.58</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="35">
         <v>828.82</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="35">
         <v>858.61</v>
       </c>
-      <c r="L16" s="36">
+      <c r="L16" s="35">
         <v>817.59</v>
       </c>
-      <c r="M16" s="36">
+      <c r="M16" s="35">
         <v>829.76</v>
       </c>
-      <c r="N16" s="36">
+      <c r="N16" s="35">
         <v>870.13</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="35">
         <v>837.82</v>
       </c>
-      <c r="P16" s="36">
+      <c r="P16" s="35">
         <v>830.43</v>
       </c>
-      <c r="Q16" s="36">
+      <c r="Q16" s="35">
         <v>876.77</v>
       </c>
-      <c r="R16" s="36">
+      <c r="R16" s="35">
         <v>846.95</v>
       </c>
-      <c r="S16" s="36">
+      <c r="S16" s="35">
         <v>849.19</v>
       </c>
-      <c r="T16" s="36">
+      <c r="T16" s="35">
         <v>898.78</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <v>734.18</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="35">
         <v>729.65</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="35">
         <v>727.38</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="35">
         <v>744.89</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="35">
         <v>755.66</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="35">
         <v>730.85</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="35">
         <v>735.6</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="35">
         <v>735.71</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="35">
         <v>734.33</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="35">
         <v>757.91</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="35">
         <v>735.05</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="35">
         <v>724.81</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="35">
         <v>740.34</v>
       </c>
-      <c r="O17" s="36">
+      <c r="O17" s="35">
         <v>735.15</v>
       </c>
-      <c r="P17" s="36">
+      <c r="P17" s="35">
         <v>734.72</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="35">
         <v>765.12</v>
       </c>
-      <c r="R17" s="36">
+      <c r="R17" s="35">
         <v>751.41</v>
       </c>
-      <c r="S17" s="36">
+      <c r="S17" s="35">
         <v>748.81</v>
       </c>
-      <c r="T17" s="36">
+      <c r="T17" s="35">
         <v>770.56</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <v>900.38</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="35">
         <v>894.01</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="35">
         <v>897.33</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="35">
         <v>899.37</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="35">
         <v>915.47</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="35">
         <v>898.78</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="35">
         <v>900.92</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="35">
         <v>902.02</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="35">
         <v>910.75</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="35">
         <v>935.86</v>
       </c>
-      <c r="L18" s="36">
+      <c r="L18" s="35">
         <v>912.8</v>
       </c>
-      <c r="M18" s="36">
+      <c r="M18" s="35">
         <v>906.1</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="35">
         <v>914.62</v>
       </c>
-      <c r="O18" s="36">
+      <c r="O18" s="35">
         <v>902.46</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18" s="35">
         <v>897.43</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="35">
         <v>919</v>
       </c>
-      <c r="R18" s="36">
+      <c r="R18" s="35">
         <v>900.38</v>
       </c>
-      <c r="S18" s="36">
+      <c r="S18" s="35">
         <v>906.64</v>
       </c>
-      <c r="T18" s="36">
+      <c r="T18" s="35">
         <v>927.77</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <v>804.54</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="35">
         <v>796.79</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="35">
         <v>794.05</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="35">
         <v>809.03</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="35">
         <v>814.67</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <v>805.04</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>811.63</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="35">
         <v>815.26</v>
       </c>
-      <c r="J19" s="36">
+      <c r="J19" s="35">
         <v>823.64</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="35">
         <v>847.97</v>
       </c>
-      <c r="L19" s="36">
+      <c r="L19" s="35">
         <v>836.78</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19" s="35">
         <v>837.66</v>
       </c>
-      <c r="N19" s="36">
+      <c r="N19" s="35">
         <v>845.99</v>
       </c>
-      <c r="O19" s="36">
+      <c r="O19" s="35">
         <v>840.42</v>
       </c>
-      <c r="P19" s="36">
+      <c r="P19" s="35">
         <v>833.17</v>
       </c>
-      <c r="Q19" s="36">
+      <c r="Q19" s="35">
         <v>851.54</v>
       </c>
-      <c r="R19" s="36">
+      <c r="R19" s="35">
         <v>848.77</v>
       </c>
-      <c r="S19" s="36">
+      <c r="S19" s="35">
         <v>850.66</v>
       </c>
-      <c r="T19" s="36">
+      <c r="T19" s="35">
         <v>865.56</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="35">
         <v>768.95</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="35">
         <v>770.3</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="35">
         <v>784.04</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="35">
         <v>806.27</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="35">
         <v>808.6</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="35">
         <v>820.99</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="35">
         <v>809.8</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="35">
         <v>803.18</v>
       </c>
-      <c r="J20" s="36">
+      <c r="J20" s="35">
         <v>806.08</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="35">
         <v>826.96</v>
       </c>
-      <c r="L20" s="36">
+      <c r="L20" s="35">
         <v>812.67</v>
       </c>
-      <c r="M20" s="36">
+      <c r="M20" s="35">
         <v>797.89</v>
       </c>
-      <c r="N20" s="36">
+      <c r="N20" s="35">
         <v>795.21</v>
       </c>
-      <c r="O20" s="36">
+      <c r="O20" s="35">
         <v>790.5</v>
       </c>
-      <c r="P20" s="36">
+      <c r="P20" s="35">
         <v>789.59</v>
       </c>
-      <c r="Q20" s="36">
+      <c r="Q20" s="35">
         <v>811.72</v>
       </c>
-      <c r="R20" s="36">
+      <c r="R20" s="35">
         <v>790.02</v>
       </c>
-      <c r="S20" s="36">
+      <c r="S20" s="35">
         <v>796.49</v>
       </c>
-      <c r="T20" s="36">
+      <c r="T20" s="35">
         <v>811.98</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="35">
         <v>772.13</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="35">
         <v>767.15</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="35">
         <v>760.45</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="35">
         <v>767.53</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="35">
         <v>766.08</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="35">
         <v>763.3</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="35">
         <v>766.92</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="35">
         <v>770.3</v>
       </c>
-      <c r="J21" s="36">
+      <c r="J21" s="35">
         <v>774.36</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="35">
         <v>797.05</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="35">
         <v>780.72</v>
       </c>
-      <c r="M21" s="36">
+      <c r="M21" s="35">
         <v>779.09</v>
       </c>
-      <c r="N21" s="36">
+      <c r="N21" s="35">
         <v>785.23</v>
       </c>
-      <c r="O21" s="36">
+      <c r="O21" s="35">
         <v>786.86</v>
       </c>
-      <c r="P21" s="36">
+      <c r="P21" s="35">
         <v>781.17</v>
       </c>
-      <c r="Q21" s="36">
+      <c r="Q21" s="35">
         <v>794.53</v>
       </c>
-      <c r="R21" s="36">
+      <c r="R21" s="35">
         <v>774.14</v>
       </c>
-      <c r="S21" s="36">
+      <c r="S21" s="35">
         <v>783.07</v>
       </c>
-      <c r="T21" s="36">
+      <c r="T21" s="35">
         <v>798.91</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="36">
+      <c r="B22" s="35">
         <v>739.5</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="35">
         <v>732.89</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="35">
         <v>741.66</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="35">
         <v>746.58</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="35">
         <v>740.6</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="35">
         <v>749.05</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="35">
         <v>747.65</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="35">
         <v>739.9</v>
       </c>
-      <c r="J22" s="36">
+      <c r="J22" s="35">
         <v>745.52</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="35">
         <v>763.22</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="35">
         <v>753.3</v>
       </c>
-      <c r="M22" s="36">
+      <c r="M22" s="35">
         <v>763.58</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="35">
         <v>773.78</v>
       </c>
-      <c r="O22" s="36">
+      <c r="O22" s="35">
         <v>758.73</v>
       </c>
-      <c r="P22" s="36">
+      <c r="P22" s="35">
         <v>757.25</v>
       </c>
-      <c r="Q22" s="36">
+      <c r="Q22" s="35">
         <v>768.15</v>
       </c>
-      <c r="R22" s="36">
+      <c r="R22" s="35">
         <v>756.7</v>
       </c>
-      <c r="S22" s="36">
+      <c r="S22" s="35">
         <v>760.62</v>
       </c>
-      <c r="T22" s="36">
+      <c r="T22" s="35">
         <v>774.84</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="35">
         <v>794.6</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="35">
         <v>785.89</v>
       </c>
-      <c r="D23" s="36">
+      <c r="D23" s="35">
         <v>775.39</v>
       </c>
-      <c r="E23" s="36">
+      <c r="E23" s="35">
         <v>788.55</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="35">
         <v>803.37</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="35">
         <v>790.94</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="35">
         <v>789.4</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="35">
         <v>774.63</v>
       </c>
-      <c r="J23" s="36">
+      <c r="J23" s="35">
         <v>798.16</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="35">
         <v>825.38</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="35">
         <v>802.74</v>
       </c>
-      <c r="M23" s="36">
+      <c r="M23" s="35">
         <v>803.62</v>
       </c>
-      <c r="N23" s="36">
+      <c r="N23" s="35">
         <v>817.39</v>
       </c>
-      <c r="O23" s="36">
+      <c r="O23" s="35">
         <v>815.62</v>
       </c>
-      <c r="P23" s="36">
+      <c r="P23" s="35">
         <v>814.2</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="35">
         <v>808.54</v>
       </c>
-      <c r="R23" s="36">
+      <c r="R23" s="35">
         <v>807.12</v>
       </c>
-      <c r="S23" s="36">
+      <c r="S23" s="35">
         <v>803.43</v>
       </c>
-      <c r="T23" s="36">
+      <c r="T23" s="35">
         <v>828.21</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="36">
+      <c r="B24" s="35">
         <v>749.06</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="35">
         <v>748.94</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="35">
         <v>751.04</v>
       </c>
-      <c r="E24" s="36">
+      <c r="E24" s="35">
         <v>753.06</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="35">
         <v>754.8</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="35">
         <v>741.73</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="35">
         <v>740.18</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="35">
         <v>747.95</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="35">
         <v>760.92</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="35">
         <v>773.47</v>
       </c>
-      <c r="L24" s="36">
+      <c r="L24" s="35">
         <v>770.44</v>
       </c>
-      <c r="M24" s="36">
+      <c r="M24" s="35">
         <v>763.64</v>
       </c>
-      <c r="N24" s="36">
+      <c r="N24" s="35">
         <v>776.79</v>
       </c>
-      <c r="O24" s="36">
+      <c r="O24" s="35">
         <v>773.52</v>
       </c>
-      <c r="P24" s="36">
+      <c r="P24" s="35">
         <v>789.93</v>
       </c>
-      <c r="Q24" s="36">
+      <c r="Q24" s="35">
         <v>790.16</v>
       </c>
-      <c r="R24" s="36">
+      <c r="R24" s="35">
         <v>793.85</v>
       </c>
-      <c r="S24" s="36">
+      <c r="S24" s="35">
         <v>777.14</v>
       </c>
-      <c r="T24" s="36">
+      <c r="T24" s="35">
         <v>785.22</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="36">
+      <c r="B25" s="35">
         <v>919.97</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="35">
         <v>916.64</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="35">
         <v>924.45</v>
       </c>
-      <c r="E25" s="36">
+      <c r="E25" s="35">
         <v>929.21</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="35">
         <v>939.47</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="35">
         <v>926.74</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="35">
         <v>928.16</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="35">
         <v>936.37</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="35">
         <v>940.77</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="35">
         <v>962.85</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="35">
         <v>951.51</v>
       </c>
-      <c r="M25" s="36">
+      <c r="M25" s="35">
         <v>942.22</v>
       </c>
-      <c r="N25" s="36">
+      <c r="N25" s="35">
         <v>971.11</v>
       </c>
-      <c r="O25" s="36">
+      <c r="O25" s="35">
         <v>950.08</v>
       </c>
-      <c r="P25" s="36">
+      <c r="P25" s="35">
         <v>944.12</v>
       </c>
-      <c r="Q25" s="36">
+      <c r="Q25" s="35">
         <v>969.88</v>
       </c>
-      <c r="R25" s="36">
+      <c r="R25" s="35">
         <v>939.47</v>
       </c>
-      <c r="S25" s="36">
+      <c r="S25" s="35">
         <v>944.97</v>
       </c>
-      <c r="T25" s="36">
+      <c r="T25" s="35">
         <v>970.14</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="35">
         <v>1041.48</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="35">
         <v>1031.25</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="35">
         <v>1030.8599999999999</v>
       </c>
-      <c r="E26" s="36">
+      <c r="E26" s="35">
         <v>1034.6300000000001</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="35">
         <v>1047.4000000000001</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="35">
         <v>1029.46</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="35">
         <v>1035.8900000000001</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="35">
         <v>1029.46</v>
       </c>
-      <c r="J26" s="36">
+      <c r="J26" s="35">
         <v>1049.22</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="35">
         <v>1075.52</v>
       </c>
-      <c r="L26" s="36">
+      <c r="L26" s="35">
         <v>1059.78</v>
       </c>
-      <c r="M26" s="36">
+      <c r="M26" s="35">
         <v>1065.6400000000001</v>
       </c>
-      <c r="N26" s="36">
+      <c r="N26" s="35">
         <v>1084.27</v>
       </c>
-      <c r="O26" s="36">
+      <c r="O26" s="35">
         <v>1065.24</v>
       </c>
-      <c r="P26" s="36">
+      <c r="P26" s="35">
         <v>1061.6099999999999</v>
       </c>
-      <c r="Q26" s="36">
+      <c r="Q26" s="35">
         <v>1086.29</v>
       </c>
-      <c r="R26" s="36">
+      <c r="R26" s="35">
         <v>1060.1199999999999</v>
       </c>
-      <c r="S26" s="36">
+      <c r="S26" s="35">
         <v>1057.1099999999999</v>
       </c>
-      <c r="T26" s="36">
+      <c r="T26" s="35">
         <v>1077.05</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="35">
         <v>822.02</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="35">
         <v>818.64</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="35">
         <v>821.06</v>
       </c>
-      <c r="E27" s="36">
+      <c r="E27" s="35">
         <v>822.17</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="35">
         <v>823.89</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="35">
         <v>816.66</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="35">
         <v>821.47</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="35">
         <v>821.1</v>
       </c>
-      <c r="J27" s="36">
+      <c r="J27" s="35">
         <v>829.68</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="35">
         <v>850.86</v>
       </c>
-      <c r="L27" s="36">
+      <c r="L27" s="35">
         <v>834.54</v>
       </c>
-      <c r="M27" s="36">
+      <c r="M27" s="35">
         <v>840.08</v>
       </c>
-      <c r="N27" s="36">
+      <c r="N27" s="35">
         <v>851.06</v>
       </c>
-      <c r="O27" s="36">
+      <c r="O27" s="35">
         <v>843.09</v>
       </c>
-      <c r="P27" s="36">
+      <c r="P27" s="35">
         <v>842.8</v>
       </c>
-      <c r="Q27" s="36">
+      <c r="Q27" s="35">
         <v>859.46</v>
       </c>
-      <c r="R27" s="36">
+      <c r="R27" s="35">
         <v>845.64</v>
       </c>
-      <c r="S27" s="36">
+      <c r="S27" s="35">
         <v>841.12</v>
       </c>
-      <c r="T27" s="36">
+      <c r="T27" s="35">
         <v>852.95</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="35">
         <v>894.79</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="35">
         <v>886.44</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="35">
         <v>906.18</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="35">
         <v>906.53</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="35">
         <v>925.76</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="35">
         <v>913.75</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="35">
         <v>919</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="35">
         <v>916.61</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="35">
         <v>931.61</v>
       </c>
-      <c r="K28" s="36">
+      <c r="K28" s="35">
         <v>953.24</v>
       </c>
-      <c r="L28" s="36">
+      <c r="L28" s="35">
         <v>950.08</v>
       </c>
-      <c r="M28" s="36">
+      <c r="M28" s="35">
         <v>944.12</v>
       </c>
-      <c r="N28" s="36">
+      <c r="N28" s="35">
         <v>958.8</v>
       </c>
-      <c r="O28" s="36">
+      <c r="O28" s="35">
         <v>955.19</v>
       </c>
-      <c r="P28" s="36">
+      <c r="P28" s="35">
         <v>955.86</v>
       </c>
-      <c r="Q28" s="36">
+      <c r="Q28" s="35">
         <v>987.7</v>
       </c>
-      <c r="R28" s="36">
+      <c r="R28" s="35">
         <v>957.68</v>
       </c>
-      <c r="S28" s="36">
+      <c r="S28" s="35">
         <v>952.75</v>
       </c>
-      <c r="T28" s="36">
+      <c r="T28" s="35">
         <v>977.99</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="36">
+      <c r="B29" s="35">
         <v>687.5</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="35">
         <v>679.31</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="35">
         <v>672.37</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="35">
         <v>684.29</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="35">
         <v>698.09</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="35">
         <v>687.93</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="35">
         <v>700.79</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="35">
         <v>688.62</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="35">
         <v>699.05</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="35">
         <v>715.88</v>
       </c>
-      <c r="L29" s="36">
+      <c r="L29" s="35">
         <v>699.75</v>
       </c>
-      <c r="M29" s="36">
+      <c r="M29" s="35">
         <v>700.79</v>
       </c>
-      <c r="N29" s="36">
+      <c r="N29" s="35">
         <v>711.61</v>
       </c>
-      <c r="O29" s="36">
+      <c r="O29" s="35">
         <v>705.1</v>
       </c>
-      <c r="P29" s="36">
+      <c r="P29" s="35">
         <v>699.61</v>
       </c>
-      <c r="Q29" s="36">
+      <c r="Q29" s="35">
         <v>705.1</v>
       </c>
-      <c r="R29" s="36">
+      <c r="R29" s="35">
         <v>697.12</v>
       </c>
-      <c r="S29" s="36">
+      <c r="S29" s="35">
         <v>703.24</v>
       </c>
-      <c r="T29" s="36">
+      <c r="T29" s="35">
         <v>715.97</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="35">
         <v>743.15</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="35">
         <v>738.26</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="35">
         <v>740.59</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="35">
         <v>746.79</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="35">
         <v>752.52</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="35">
         <v>738.93</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="35">
         <v>746.59</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="35">
         <v>741.02</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="35">
         <v>760.91</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="35">
         <v>780.78</v>
       </c>
-      <c r="L30" s="36">
+      <c r="L30" s="35">
         <v>768.91</v>
       </c>
-      <c r="M30" s="36">
+      <c r="M30" s="35">
         <v>766.92</v>
       </c>
-      <c r="N30" s="36">
+      <c r="N30" s="35">
         <v>792.08</v>
       </c>
-      <c r="O30" s="36">
+      <c r="O30" s="35">
         <v>776.86</v>
       </c>
-      <c r="P30" s="36">
+      <c r="P30" s="35">
         <v>785.55</v>
       </c>
-      <c r="Q30" s="36">
+      <c r="Q30" s="35">
         <v>812.26</v>
       </c>
-      <c r="R30" s="36">
+      <c r="R30" s="35">
         <v>791.28</v>
       </c>
-      <c r="S30" s="36">
+      <c r="S30" s="35">
         <v>791.95</v>
       </c>
-      <c r="T30" s="36">
+      <c r="T30" s="35">
         <v>822.17</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="36">
+      <c r="B31" s="35">
         <v>713.87</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="35">
         <v>722.87</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="35">
         <v>709.95</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="35">
         <v>724.79</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="35">
         <v>740.52</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="35">
         <v>732.5</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="35">
         <v>739.36</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="35">
         <v>738.47</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="35">
         <v>740.95</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="35">
         <v>758.91</v>
       </c>
-      <c r="L31" s="36">
+      <c r="L31" s="35">
         <v>739.37</v>
       </c>
-      <c r="M31" s="36">
+      <c r="M31" s="35">
         <v>735.8</v>
       </c>
-      <c r="N31" s="36">
+      <c r="N31" s="35">
         <v>751.43</v>
       </c>
-      <c r="O31" s="36">
+      <c r="O31" s="35">
         <v>729.31</v>
       </c>
-      <c r="P31" s="36">
+      <c r="P31" s="35">
         <v>731.58</v>
       </c>
-      <c r="Q31" s="36">
+      <c r="Q31" s="35">
         <v>760.98</v>
       </c>
-      <c r="R31" s="36">
+      <c r="R31" s="35">
         <v>750.79</v>
       </c>
-      <c r="S31" s="36">
+      <c r="S31" s="35">
         <v>757.58</v>
       </c>
-      <c r="T31" s="36">
+      <c r="T31" s="35">
         <v>778.08</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A32" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="36">
+      <c r="B32" s="35">
         <v>760.18</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="35">
         <v>761.9</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="35">
         <v>762.86</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="35">
         <v>779.96</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="35">
         <v>785.66</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="35">
         <v>779.08</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="35">
         <v>782.68</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="35">
         <v>783.28</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="35">
         <v>783.82</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="35">
         <v>806.27</v>
       </c>
-      <c r="L32" s="36">
+      <c r="L32" s="35">
         <v>774.14</v>
       </c>
-      <c r="M32" s="36">
+      <c r="M32" s="35">
         <v>768.83</v>
       </c>
-      <c r="N32" s="36">
+      <c r="N32" s="35">
         <v>807.84</v>
       </c>
-      <c r="O32" s="36">
+      <c r="O32" s="35">
         <v>791.95</v>
       </c>
-      <c r="P32" s="36">
+      <c r="P32" s="35">
         <v>804.44</v>
       </c>
-      <c r="Q32" s="36">
+      <c r="Q32" s="35">
         <v>830.06</v>
       </c>
-      <c r="R32" s="36">
+      <c r="R32" s="35">
         <v>812.89</v>
       </c>
-      <c r="S32" s="36">
+      <c r="S32" s="35">
         <v>815.65</v>
       </c>
-      <c r="T32" s="36">
+      <c r="T32" s="35">
         <v>836.97</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A33" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="36">
+      <c r="B33" s="35">
         <v>739.7</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="35">
         <v>741.26</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="35">
         <v>739.26</v>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="35">
         <v>746.59</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="35">
         <v>758.73</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="35">
         <v>750.38</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="35">
         <v>748.3</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="35">
         <v>758.52</v>
       </c>
-      <c r="J33" s="36">
+      <c r="J33" s="35">
         <v>750.88</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="35">
         <v>765.9</v>
       </c>
-      <c r="L33" s="36">
+      <c r="L33" s="35">
         <v>749.35</v>
       </c>
-      <c r="M33" s="36">
+      <c r="M33" s="35">
         <v>757.02</v>
       </c>
-      <c r="N33" s="36">
+      <c r="N33" s="35">
         <v>774.07</v>
       </c>
-      <c r="O33" s="36">
+      <c r="O33" s="35">
         <v>753.75</v>
       </c>
-      <c r="P33" s="36">
+      <c r="P33" s="35">
         <v>761.39</v>
       </c>
-      <c r="Q33" s="36">
+      <c r="Q33" s="35">
         <v>768.82</v>
       </c>
-      <c r="R33" s="36">
+      <c r="R33" s="35">
         <v>761.11</v>
       </c>
-      <c r="S33" s="36">
+      <c r="S33" s="35">
         <v>763.69</v>
       </c>
-      <c r="T33" s="36">
+      <c r="T33" s="35">
         <v>775.73</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="36">
+      <c r="B34" s="35">
         <v>861.8</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="35">
         <v>858.22</v>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="35">
         <v>849.35</v>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="35">
         <v>860.83</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="35">
         <v>862.92</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="35">
         <v>846.21</v>
       </c>
-      <c r="H34" s="36">
+      <c r="H34" s="35">
         <v>852.38</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="35">
         <v>864.62</v>
       </c>
-      <c r="J34" s="36">
+      <c r="J34" s="35">
         <v>884.07</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="35">
         <v>909.08</v>
       </c>
-      <c r="L34" s="36">
+      <c r="L34" s="35">
         <v>892.06</v>
       </c>
-      <c r="M34" s="36">
+      <c r="M34" s="35">
         <v>894.44</v>
       </c>
-      <c r="N34" s="36">
+      <c r="N34" s="35">
         <v>905.13</v>
       </c>
-      <c r="O34" s="36">
+      <c r="O34" s="35">
         <v>893.45</v>
       </c>
-      <c r="P34" s="36">
+      <c r="P34" s="35">
         <v>893.45</v>
       </c>
-      <c r="Q34" s="36">
+      <c r="Q34" s="35">
         <v>916.76</v>
       </c>
-      <c r="R34" s="36">
+      <c r="R34" s="35">
         <v>888.52</v>
       </c>
-      <c r="S34" s="36">
+      <c r="S34" s="35">
         <v>880.8</v>
       </c>
-      <c r="T34" s="36">
+      <c r="T34" s="35">
         <v>874.79</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="36">
+      <c r="B35" s="35">
         <v>934.75</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="35">
         <v>940.46</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="35">
         <v>937.67</v>
       </c>
-      <c r="E35" s="36">
+      <c r="E35" s="35">
         <v>948.77</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="35">
         <v>961.18</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="35">
         <v>941.4</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="35">
         <v>946.28</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="35">
         <v>946.83</v>
       </c>
-      <c r="J35" s="36">
+      <c r="J35" s="35">
         <v>981.01</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="35">
         <v>1004.85</v>
       </c>
-      <c r="L35" s="36">
+      <c r="L35" s="35">
         <v>978.77</v>
       </c>
-      <c r="M35" s="36">
+      <c r="M35" s="35">
         <v>986.52</v>
       </c>
-      <c r="N35" s="36">
+      <c r="N35" s="35">
         <v>1003.45</v>
       </c>
-      <c r="O35" s="36">
+      <c r="O35" s="35">
         <v>963.64</v>
       </c>
-      <c r="P35" s="36">
+      <c r="P35" s="35">
         <v>951.35</v>
       </c>
-      <c r="Q35" s="36">
+      <c r="Q35" s="35">
         <v>987.39</v>
       </c>
-      <c r="R35" s="36">
+      <c r="R35" s="35">
         <v>1007.76</v>
       </c>
-      <c r="S35" s="36">
+      <c r="S35" s="35">
         <v>993.04</v>
       </c>
-      <c r="T35" s="36">
+      <c r="T35" s="35">
         <v>1000.84</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A36" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="36">
+      <c r="B36" s="35">
         <v>687.71</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="35">
         <v>691.78</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="35">
         <v>681.98</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="35">
         <v>685.41</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="35">
         <v>686.47</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="35">
         <v>678.69</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="35">
         <v>684.74</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="35">
         <v>688.13</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="35">
         <v>691.71</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="35">
         <v>709.87</v>
       </c>
-      <c r="L36" s="36">
+      <c r="L36" s="35">
         <v>695.72</v>
       </c>
-      <c r="M36" s="36">
+      <c r="M36" s="35">
         <v>694.54</v>
       </c>
-      <c r="N36" s="36">
+      <c r="N36" s="35">
         <v>703.17</v>
       </c>
-      <c r="O36" s="36">
+      <c r="O36" s="35">
         <v>695.21</v>
       </c>
-      <c r="P36" s="36">
+      <c r="P36" s="35">
         <v>694.21</v>
       </c>
-      <c r="Q36" s="36">
+      <c r="Q36" s="35">
         <v>720.71</v>
       </c>
-      <c r="R36" s="36">
+      <c r="R36" s="35">
         <v>710.06</v>
       </c>
-      <c r="S36" s="36">
+      <c r="S36" s="35">
         <v>706.82</v>
       </c>
-      <c r="T36" s="36">
+      <c r="T36" s="35">
         <v>725.9</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A37" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="36">
+      <c r="B37" s="35">
         <v>976.95</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="35">
         <v>979.07</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="35">
         <v>971.43</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="35">
         <v>969.36</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="35">
         <v>981.46</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="35">
         <v>962.12</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="35">
         <v>977.3</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="35">
         <v>993.04</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="35">
         <v>980.78</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="35">
         <v>998.87</v>
       </c>
-      <c r="L37" s="36">
+      <c r="L37" s="35">
         <v>979.96</v>
       </c>
-      <c r="M37" s="36">
+      <c r="M37" s="35">
         <v>980.88</v>
       </c>
-      <c r="N37" s="36">
+      <c r="N37" s="35">
         <v>1011.03</v>
       </c>
-      <c r="O37" s="36">
+      <c r="O37" s="35">
         <v>992.67</v>
       </c>
-      <c r="P37" s="36">
+      <c r="P37" s="35">
         <v>984.66</v>
       </c>
-      <c r="Q37" s="36">
+      <c r="Q37" s="35">
         <v>1016.06</v>
       </c>
-      <c r="R37" s="36">
+      <c r="R37" s="35">
         <v>991.67</v>
       </c>
-      <c r="S37" s="36">
+      <c r="S37" s="35">
         <v>992.61</v>
       </c>
-      <c r="T37" s="36">
+      <c r="T37" s="35">
         <v>1013.7</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A38" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="36">
+      <c r="B38" s="35">
         <v>776.72</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="35">
         <v>783.48</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="35">
         <v>790.78</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="35">
         <v>797.13</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="35">
         <v>809.03</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="35">
         <v>801.52</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="35">
         <v>803.16</v>
       </c>
-      <c r="I38" s="36">
+      <c r="I38" s="35">
         <v>806.68</v>
       </c>
-      <c r="J38" s="36">
+      <c r="J38" s="35">
         <v>809.43</v>
       </c>
-      <c r="K38" s="36">
+      <c r="K38" s="35">
         <v>824.86</v>
       </c>
-      <c r="L38" s="36">
+      <c r="L38" s="35">
         <v>817.65</v>
       </c>
-      <c r="M38" s="36">
+      <c r="M38" s="35">
         <v>812.87</v>
       </c>
-      <c r="N38" s="36">
+      <c r="N38" s="35">
         <v>818.38</v>
       </c>
-      <c r="O38" s="36">
+      <c r="O38" s="35">
         <v>825.26</v>
       </c>
-      <c r="P38" s="36">
+      <c r="P38" s="35">
         <v>823.89</v>
       </c>
-      <c r="Q38" s="36">
+      <c r="Q38" s="35">
         <v>844.6</v>
       </c>
-      <c r="R38" s="36">
+      <c r="R38" s="35">
         <v>825.6</v>
       </c>
-      <c r="S38" s="36">
+      <c r="S38" s="35">
         <v>822.1</v>
       </c>
-      <c r="T38" s="36">
+      <c r="T38" s="35">
         <v>841.46</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="36">
+      <c r="B39" s="35">
         <v>895.13</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="35">
         <v>875.69</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="35">
         <v>864.74</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="35">
         <v>885.1</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="35">
         <v>904.96</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="35">
         <v>878.84</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="35">
         <v>891.58</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39" s="35">
         <v>896.93</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39" s="35">
         <v>891.99</v>
       </c>
-      <c r="K39" s="36">
+      <c r="K39" s="35">
         <v>913.3</v>
       </c>
-      <c r="L39" s="36">
+      <c r="L39" s="35">
         <v>880.14</v>
       </c>
-      <c r="M39" s="36">
+      <c r="M39" s="35">
         <v>872.25</v>
       </c>
-      <c r="N39" s="36">
+      <c r="N39" s="35">
         <v>882.2</v>
       </c>
-      <c r="O39" s="36">
+      <c r="O39" s="35">
         <v>867.16</v>
       </c>
-      <c r="P39" s="36">
+      <c r="P39" s="35">
         <v>868.52</v>
       </c>
-      <c r="Q39" s="36">
+      <c r="Q39" s="35">
         <v>915.41</v>
       </c>
-      <c r="R39" s="36">
+      <c r="R39" s="35">
         <v>915.2</v>
       </c>
-      <c r="S39" s="36">
+      <c r="S39" s="35">
         <v>922.52</v>
       </c>
-      <c r="T39" s="36">
+      <c r="T39" s="35">
         <v>942.73</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A40" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="36">
+      <c r="B40" s="35">
         <v>786.08</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="35">
         <v>785.4</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="35">
         <v>787.03</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="35">
         <v>799.94</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="35">
         <v>805.3</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="35">
         <v>794.05</v>
       </c>
-      <c r="H40" s="36">
+      <c r="H40" s="35">
         <v>800.22</v>
       </c>
-      <c r="I40" s="36">
+      <c r="I40" s="35">
         <v>796.79</v>
       </c>
-      <c r="J40" s="36">
+      <c r="J40" s="35">
         <v>810.12</v>
       </c>
-      <c r="K40" s="36">
+      <c r="K40" s="35">
         <v>827.94</v>
       </c>
-      <c r="L40" s="36">
+      <c r="L40" s="35">
         <v>815.28</v>
       </c>
-      <c r="M40" s="36">
+      <c r="M40" s="35">
         <v>820.44</v>
       </c>
-      <c r="N40" s="36">
+      <c r="N40" s="35">
         <v>825.94</v>
       </c>
-      <c r="O40" s="36">
+      <c r="O40" s="35">
         <v>814.31</v>
       </c>
-      <c r="P40" s="36">
+      <c r="P40" s="35">
         <v>815.33</v>
       </c>
-      <c r="Q40" s="36">
+      <c r="Q40" s="35">
         <v>823.54</v>
       </c>
-      <c r="R40" s="36">
+      <c r="R40" s="35">
         <v>814.28</v>
       </c>
-      <c r="S40" s="36">
+      <c r="S40" s="35">
         <v>814.94</v>
       </c>
-      <c r="T40" s="36">
+      <c r="T40" s="35">
         <v>822.17</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A41" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="35">
         <v>756.28</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="35">
         <v>759.68</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="35">
         <v>754.52</v>
       </c>
-      <c r="E41" s="36">
+      <c r="E41" s="35">
         <v>757.39</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="35">
         <v>771.15</v>
       </c>
-      <c r="G41" s="36">
+      <c r="G41" s="35">
         <v>762.65</v>
       </c>
-      <c r="H41" s="36">
+      <c r="H41" s="35">
         <v>777.22</v>
       </c>
-      <c r="I41" s="36">
+      <c r="I41" s="35">
         <v>767.55</v>
       </c>
-      <c r="J41" s="36">
+      <c r="J41" s="35">
         <v>779.92</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K41" s="35">
         <v>798.25</v>
       </c>
-      <c r="L41" s="36">
+      <c r="L41" s="35">
         <v>780.15</v>
       </c>
-      <c r="M41" s="36">
+      <c r="M41" s="35">
         <v>781.55</v>
       </c>
-      <c r="N41" s="36">
+      <c r="N41" s="35">
         <v>798.13</v>
       </c>
-      <c r="O41" s="36">
+      <c r="O41" s="35">
         <v>798.13</v>
       </c>
-      <c r="P41" s="36">
+      <c r="P41" s="35">
         <v>799.19</v>
       </c>
-      <c r="Q41" s="36">
+      <c r="Q41" s="35">
         <v>823.19</v>
       </c>
-      <c r="R41" s="36">
+      <c r="R41" s="35">
         <v>803.08</v>
       </c>
-      <c r="S41" s="36">
+      <c r="S41" s="35">
         <v>806.7</v>
       </c>
-      <c r="T41" s="36">
+      <c r="T41" s="35">
         <v>833.69</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A42" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="36">
+      <c r="B42" s="35">
         <v>811.29</v>
       </c>
-      <c r="C42" s="36">
+      <c r="C42" s="35">
         <v>820.6</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="35">
         <v>811.71</v>
       </c>
-      <c r="E42" s="36">
+      <c r="E42" s="35">
         <v>834.62</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F42" s="35">
         <v>855.7</v>
       </c>
-      <c r="G42" s="36">
+      <c r="G42" s="35">
         <v>834.14</v>
       </c>
-      <c r="H42" s="36">
+      <c r="H42" s="35">
         <v>844.86</v>
       </c>
-      <c r="I42" s="36">
+      <c r="I42" s="35">
         <v>843.83</v>
       </c>
-      <c r="J42" s="36">
+      <c r="J42" s="35">
         <v>857.5</v>
       </c>
-      <c r="K42" s="36">
+      <c r="K42" s="35">
         <v>885.92</v>
       </c>
-      <c r="L42" s="36">
+      <c r="L42" s="35">
         <v>856.8</v>
       </c>
-      <c r="M42" s="36">
+      <c r="M42" s="35">
         <v>850.48</v>
       </c>
-      <c r="N42" s="36">
+      <c r="N42" s="35">
         <v>871.34</v>
       </c>
-      <c r="O42" s="36">
+      <c r="O42" s="35">
         <v>869.04</v>
       </c>
-      <c r="P42" s="36">
+      <c r="P42" s="35">
         <v>859.35</v>
       </c>
-      <c r="Q42" s="36">
+      <c r="Q42" s="35">
         <v>894.84</v>
       </c>
-      <c r="R42" s="36">
+      <c r="R42" s="35">
         <v>852.1</v>
       </c>
-      <c r="S42" s="36">
+      <c r="S42" s="35">
         <v>860.54</v>
       </c>
-      <c r="T42" s="36">
+      <c r="T42" s="35">
         <v>888.79</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A43" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="35">
         <v>831.72</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="35">
         <v>825.89</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="35">
         <v>822.53</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="35">
         <v>825.65</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="35">
         <v>830.55</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="35">
         <v>824.72</v>
       </c>
-      <c r="H43" s="36">
+      <c r="H43" s="35">
         <v>831.48</v>
       </c>
-      <c r="I43" s="36">
+      <c r="I43" s="35">
         <v>829.11</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="35">
         <v>837.23</v>
       </c>
-      <c r="K43" s="36">
+      <c r="K43" s="35">
         <v>852.5</v>
       </c>
-      <c r="L43" s="36">
+      <c r="L43" s="35">
         <v>842.63</v>
       </c>
-      <c r="M43" s="36">
+      <c r="M43" s="35">
         <v>845</v>
       </c>
-      <c r="N43" s="36">
+      <c r="N43" s="35">
         <v>848.57</v>
       </c>
-      <c r="O43" s="36">
+      <c r="O43" s="35">
         <v>835.33</v>
       </c>
-      <c r="P43" s="36">
+      <c r="P43" s="35">
         <v>826.65</v>
       </c>
-      <c r="Q43" s="36">
+      <c r="Q43" s="35">
         <v>853.94</v>
       </c>
-      <c r="R43" s="36">
+      <c r="R43" s="35">
         <v>839.59</v>
       </c>
-      <c r="S43" s="36">
+      <c r="S43" s="35">
         <v>839.25</v>
       </c>
-      <c r="T43" s="36">
+      <c r="T43" s="35">
         <v>848.64</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A44" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="36">
+      <c r="B44" s="35">
         <v>842.08</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="35">
         <v>843.7</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="35">
         <v>833.95</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="35">
         <v>849.55</v>
       </c>
-      <c r="F44" s="36">
+      <c r="F44" s="35">
         <v>857.67</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="35">
         <v>848.1</v>
       </c>
-      <c r="H44" s="36">
+      <c r="H44" s="35">
         <v>842.82</v>
       </c>
-      <c r="I44" s="36">
+      <c r="I44" s="35">
         <v>854.04</v>
       </c>
-      <c r="J44" s="36">
+      <c r="J44" s="35">
         <v>852.11</v>
       </c>
-      <c r="K44" s="36">
+      <c r="K44" s="35">
         <v>853.74</v>
       </c>
-      <c r="L44" s="36">
+      <c r="L44" s="35">
         <v>856.27</v>
       </c>
-      <c r="M44" s="36">
+      <c r="M44" s="35">
         <v>858.05</v>
       </c>
-      <c r="N44" s="36">
+      <c r="N44" s="35">
         <v>876.29</v>
       </c>
-      <c r="O44" s="36">
+      <c r="O44" s="35">
         <v>858.92</v>
       </c>
-      <c r="P44" s="36">
+      <c r="P44" s="35">
         <v>857.92</v>
       </c>
-      <c r="Q44" s="36">
+      <c r="Q44" s="35">
         <v>887.7</v>
       </c>
-      <c r="R44" s="36">
+      <c r="R44" s="35">
         <v>878.76</v>
       </c>
-      <c r="S44" s="36">
+      <c r="S44" s="35">
         <v>873.84</v>
       </c>
-      <c r="T44" s="36">
+      <c r="T44" s="35">
         <v>877.48</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A45" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="36">
+      <c r="B45" s="35">
         <v>752.33</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="35">
         <v>749.58</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="35">
         <v>767.08</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="35">
         <v>758.78</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="35">
         <v>761.08</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="35">
         <v>763.62</v>
       </c>
-      <c r="H45" s="36">
+      <c r="H45" s="35">
         <v>754.39</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="35">
         <v>755.08</v>
       </c>
-      <c r="J45" s="36">
+      <c r="J45" s="35">
         <v>765.06</v>
       </c>
-      <c r="K45" s="36">
+      <c r="K45" s="35">
         <v>770.87</v>
       </c>
-      <c r="L45" s="36">
+      <c r="L45" s="35">
         <v>776.25</v>
       </c>
-      <c r="M45" s="36">
+      <c r="M45" s="35">
         <v>774.87</v>
       </c>
-      <c r="N45" s="36">
+      <c r="N45" s="35">
         <v>794.3</v>
       </c>
-      <c r="O45" s="36">
+      <c r="O45" s="35">
         <v>782.26</v>
       </c>
-      <c r="P45" s="36">
+      <c r="P45" s="35">
         <v>797.99</v>
       </c>
-      <c r="Q45" s="36">
+      <c r="Q45" s="35">
         <v>791.16</v>
       </c>
-      <c r="R45" s="36">
+      <c r="R45" s="35">
         <v>776.42</v>
       </c>
-      <c r="S45" s="36">
+      <c r="S45" s="35">
         <v>783.51</v>
       </c>
-      <c r="T45" s="36">
+      <c r="T45" s="35">
         <v>797.81</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A46" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="36">
+      <c r="B46" s="35">
         <v>717.02</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="35">
         <v>707.41</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="35">
         <v>711.65</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="35">
         <v>725.8</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="35">
         <v>734.16</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="35">
         <v>719.68</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H46" s="35">
         <v>727.56</v>
       </c>
-      <c r="I46" s="36">
+      <c r="I46" s="35">
         <v>720.53</v>
       </c>
-      <c r="J46" s="36">
+      <c r="J46" s="35">
         <v>736.56</v>
       </c>
-      <c r="K46" s="36">
+      <c r="K46" s="35">
         <v>750.03</v>
       </c>
-      <c r="L46" s="36">
+      <c r="L46" s="35">
         <v>738.82</v>
       </c>
-      <c r="M46" s="36">
+      <c r="M46" s="35">
         <v>726.55</v>
       </c>
-      <c r="N46" s="36">
+      <c r="N46" s="35">
         <v>745.78</v>
       </c>
-      <c r="O46" s="36">
+      <c r="O46" s="35">
         <v>737.37</v>
       </c>
-      <c r="P46" s="36">
+      <c r="P46" s="35">
         <v>732.06</v>
       </c>
-      <c r="Q46" s="36">
+      <c r="Q46" s="35">
         <v>749.53</v>
       </c>
-      <c r="R46" s="36">
+      <c r="R46" s="35">
         <v>740.04</v>
       </c>
-      <c r="S46" s="36">
+      <c r="S46" s="35">
         <v>732.7</v>
       </c>
-      <c r="T46" s="36">
+      <c r="T46" s="35">
         <v>743.97</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A47" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="36">
+      <c r="B47" s="35">
         <v>753.25</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="35">
         <v>748.68</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="35">
         <v>753.3</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E47" s="35">
         <v>756.5</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="35">
         <v>775.43</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="35">
         <v>766.47</v>
       </c>
-      <c r="H47" s="36">
+      <c r="H47" s="35">
         <v>773.19</v>
       </c>
-      <c r="I47" s="36">
+      <c r="I47" s="35">
         <v>770.71</v>
       </c>
-      <c r="J47" s="36">
+      <c r="J47" s="35">
         <v>781.99</v>
       </c>
-      <c r="K47" s="36">
+      <c r="K47" s="35">
         <v>797.27</v>
       </c>
-      <c r="L47" s="36">
+      <c r="L47" s="35">
         <v>788.81</v>
       </c>
-      <c r="M47" s="36">
+      <c r="M47" s="35">
         <v>806.7</v>
       </c>
-      <c r="N47" s="36">
+      <c r="N47" s="35">
         <v>814.67</v>
       </c>
-      <c r="O47" s="36">
+      <c r="O47" s="35">
         <v>800.75</v>
       </c>
-      <c r="P47" s="36">
+      <c r="P47" s="35">
         <v>790.72</v>
       </c>
-      <c r="Q47" s="36">
+      <c r="Q47" s="35">
         <v>805.85</v>
       </c>
-      <c r="R47" s="36">
+      <c r="R47" s="35">
         <v>794.02</v>
       </c>
-      <c r="S47" s="36">
+      <c r="S47" s="35">
         <v>795.66</v>
       </c>
-      <c r="T47" s="36">
+      <c r="T47" s="35">
         <v>805.98</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A48" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="36">
+      <c r="B48" s="35">
         <v>877.15</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="35">
         <v>871.79</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48" s="35">
         <v>863.1</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48" s="35">
         <v>870.06</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="35">
         <v>892.69</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="35">
         <v>870.3</v>
       </c>
-      <c r="H48" s="36">
+      <c r="H48" s="35">
         <v>870.72</v>
       </c>
-      <c r="I48" s="36">
+      <c r="I48" s="35">
         <v>872.15</v>
       </c>
-      <c r="J48" s="36">
+      <c r="J48" s="35">
         <v>877.86</v>
       </c>
-      <c r="K48" s="36">
+      <c r="K48" s="35">
         <v>909.32</v>
       </c>
-      <c r="L48" s="36">
+      <c r="L48" s="35">
         <v>880.4</v>
       </c>
-      <c r="M48" s="36">
+      <c r="M48" s="35">
         <v>887.5</v>
       </c>
-      <c r="N48" s="36">
+      <c r="N48" s="35">
         <v>912.6</v>
       </c>
-      <c r="O48" s="36">
+      <c r="O48" s="35">
         <v>890.66</v>
       </c>
-      <c r="P48" s="36">
+      <c r="P48" s="35">
         <v>891.76</v>
       </c>
-      <c r="Q48" s="36">
+      <c r="Q48" s="35">
         <v>913.92</v>
       </c>
-      <c r="R48" s="36">
+      <c r="R48" s="35">
         <v>898.9</v>
       </c>
-      <c r="S48" s="36">
+      <c r="S48" s="35">
         <v>896.07</v>
       </c>
-      <c r="T48" s="36">
+      <c r="T48" s="35">
         <v>930.75</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="36">
+      <c r="B49" s="35">
         <v>831.3</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="35">
         <v>829.01</v>
       </c>
-      <c r="D49" s="36">
+      <c r="D49" s="35">
         <v>826.97</v>
       </c>
-      <c r="E49" s="36">
+      <c r="E49" s="35">
         <v>840.39</v>
       </c>
-      <c r="F49" s="36">
+      <c r="F49" s="35">
         <v>860.97</v>
       </c>
-      <c r="G49" s="36">
+      <c r="G49" s="35">
         <v>841.12</v>
       </c>
-      <c r="H49" s="36">
+      <c r="H49" s="35">
         <v>844.6</v>
       </c>
-      <c r="I49" s="36">
+      <c r="I49" s="35">
         <v>843.18</v>
       </c>
-      <c r="J49" s="36">
+      <c r="J49" s="35">
         <v>853.88</v>
       </c>
-      <c r="K49" s="36">
+      <c r="K49" s="35">
         <v>872.96</v>
       </c>
-      <c r="L49" s="36">
+      <c r="L49" s="35">
         <v>871.39</v>
       </c>
-      <c r="M49" s="36">
+      <c r="M49" s="35">
         <v>848.08</v>
       </c>
-      <c r="N49" s="36">
+      <c r="N49" s="35">
         <v>872.96</v>
       </c>
-      <c r="O49" s="36">
+      <c r="O49" s="35">
         <v>849.47</v>
       </c>
-      <c r="P49" s="36">
+      <c r="P49" s="35">
         <v>850.81</v>
       </c>
-      <c r="Q49" s="36">
+      <c r="Q49" s="35">
         <v>892.74</v>
       </c>
-      <c r="R49" s="36">
+      <c r="R49" s="35">
         <v>870.48</v>
       </c>
-      <c r="S49" s="36">
+      <c r="S49" s="35">
         <v>877.89</v>
       </c>
-      <c r="T49" s="36">
+      <c r="T49" s="35">
         <v>903.21</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="36">
+      <c r="B50" s="35">
         <v>813.12</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="35">
         <v>802.76</v>
       </c>
-      <c r="D50" s="36">
+      <c r="D50" s="35">
         <v>797.37</v>
       </c>
-      <c r="E50" s="36">
+      <c r="E50" s="35">
         <v>814.52</v>
       </c>
-      <c r="F50" s="36">
+      <c r="F50" s="35">
         <v>824.72</v>
       </c>
-      <c r="G50" s="36">
+      <c r="G50" s="35">
         <v>810.82</v>
       </c>
-      <c r="H50" s="36">
+      <c r="H50" s="35">
         <v>811.91</v>
       </c>
-      <c r="I50" s="36">
+      <c r="I50" s="35">
         <v>806.13</v>
       </c>
-      <c r="J50" s="36">
+      <c r="J50" s="35">
         <v>822.35</v>
       </c>
-      <c r="K50" s="36">
+      <c r="K50" s="35">
         <v>828.35</v>
       </c>
-      <c r="L50" s="36">
+      <c r="L50" s="35">
         <v>821.51</v>
       </c>
-      <c r="M50" s="36">
+      <c r="M50" s="35">
         <v>802.46</v>
       </c>
-      <c r="N50" s="36">
+      <c r="N50" s="35">
         <v>815.63</v>
       </c>
-      <c r="O50" s="36">
+      <c r="O50" s="35">
         <v>797.83</v>
       </c>
-      <c r="P50" s="36">
+      <c r="P50" s="35">
         <v>789.9</v>
       </c>
-      <c r="Q50" s="36">
+      <c r="Q50" s="35">
         <v>819.18</v>
       </c>
-      <c r="R50" s="36">
+      <c r="R50" s="35">
         <v>817.74</v>
       </c>
-      <c r="S50" s="36">
+      <c r="S50" s="35">
         <v>810.15</v>
       </c>
-      <c r="T50" s="36">
+      <c r="T50" s="35">
         <v>821.14</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="36">
+      <c r="B51" s="35">
         <v>924.41</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="35">
         <v>924.06</v>
       </c>
-      <c r="D51" s="36">
+      <c r="D51" s="35">
         <v>929.51</v>
       </c>
-      <c r="E51" s="36">
+      <c r="E51" s="35">
         <v>938.46</v>
       </c>
-      <c r="F51" s="36">
+      <c r="F51" s="35">
         <v>954.72</v>
       </c>
-      <c r="G51" s="36">
+      <c r="G51" s="35">
         <v>933.92</v>
       </c>
-      <c r="H51" s="36">
+      <c r="H51" s="35">
         <v>943.35</v>
       </c>
-      <c r="I51" s="36">
+      <c r="I51" s="35">
         <v>935.06</v>
       </c>
-      <c r="J51" s="36">
+      <c r="J51" s="35">
         <v>950.51</v>
       </c>
-      <c r="K51" s="36">
+      <c r="K51" s="35">
         <v>972.87</v>
       </c>
-      <c r="L51" s="36">
+      <c r="L51" s="35">
         <v>947.19</v>
       </c>
-      <c r="M51" s="36">
+      <c r="M51" s="35">
         <v>949.69</v>
       </c>
-      <c r="N51" s="36">
+      <c r="N51" s="35">
         <v>970.56</v>
       </c>
-      <c r="O51" s="36">
+      <c r="O51" s="35">
         <v>954.26</v>
       </c>
-      <c r="P51" s="36">
+      <c r="P51" s="35">
         <v>942.55</v>
       </c>
-      <c r="Q51" s="36">
+      <c r="Q51" s="35">
         <v>974.72</v>
       </c>
-      <c r="R51" s="36">
+      <c r="R51" s="35">
         <v>939.13</v>
       </c>
-      <c r="S51" s="36">
+      <c r="S51" s="35">
         <v>931.85</v>
       </c>
-      <c r="T51" s="36">
+      <c r="T51" s="35">
         <v>955.96</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A52" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="36">
+      <c r="B52" s="35">
         <v>1032.92</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="35">
         <v>1036.94</v>
       </c>
-      <c r="D52" s="36">
+      <c r="D52" s="35">
         <v>1033.23</v>
       </c>
-      <c r="E52" s="36">
+      <c r="E52" s="35">
         <v>1039.9100000000001</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F52" s="35">
         <v>1068.32</v>
       </c>
-      <c r="G52" s="36">
+      <c r="G52" s="35">
         <v>1033.6199999999999</v>
       </c>
-      <c r="H52" s="36">
+      <c r="H52" s="35">
         <v>1038.3499999999999</v>
       </c>
-      <c r="I52" s="36">
+      <c r="I52" s="35">
         <v>1040.02</v>
       </c>
-      <c r="J52" s="36">
+      <c r="J52" s="35">
         <v>1052.53</v>
       </c>
-      <c r="K52" s="36">
+      <c r="K52" s="35">
         <v>1087.5899999999999</v>
       </c>
-      <c r="L52" s="36">
+      <c r="L52" s="35">
         <v>1050.58</v>
       </c>
-      <c r="M52" s="36">
+      <c r="M52" s="35">
         <v>1053.33</v>
       </c>
-      <c r="N52" s="36">
+      <c r="N52" s="35">
         <v>1094.46</v>
       </c>
-      <c r="O52" s="36">
+      <c r="O52" s="35">
         <v>1063.96</v>
       </c>
-      <c r="P52" s="36">
+      <c r="P52" s="35">
         <v>1064.33</v>
       </c>
-      <c r="Q52" s="36">
+      <c r="Q52" s="35">
         <v>1110.54</v>
       </c>
-      <c r="R52" s="36">
+      <c r="R52" s="35">
         <v>1066.4000000000001</v>
       </c>
-      <c r="S52" s="36">
+      <c r="S52" s="35">
         <v>1070.52</v>
       </c>
-      <c r="T52" s="36">
+      <c r="T52" s="35">
         <v>1109.08</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="36">
+      <c r="B53" s="35">
         <v>720.94</v>
       </c>
-      <c r="C53" s="36">
+      <c r="C53" s="35">
         <v>724.07</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="35">
         <v>728.02</v>
       </c>
-      <c r="E53" s="36">
+      <c r="E53" s="35">
         <v>732.19</v>
       </c>
-      <c r="F53" s="36">
+      <c r="F53" s="35">
         <v>720.69</v>
       </c>
-      <c r="G53" s="36">
+      <c r="G53" s="35">
         <v>723.71</v>
       </c>
-      <c r="H53" s="36">
+      <c r="H53" s="35">
         <v>735.3</v>
       </c>
-      <c r="I53" s="36">
+      <c r="I53" s="35">
         <v>732.16</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="35">
         <v>738.85</v>
       </c>
-      <c r="K53" s="36">
+      <c r="K53" s="35">
         <v>751.89</v>
       </c>
-      <c r="L53" s="36">
+      <c r="L53" s="35">
         <v>745.54</v>
       </c>
-      <c r="M53" s="36">
+      <c r="M53" s="35">
         <v>740.61</v>
       </c>
-      <c r="N53" s="36">
+      <c r="N53" s="35">
         <v>755.04</v>
       </c>
-      <c r="O53" s="36">
+      <c r="O53" s="35">
         <v>752.19</v>
       </c>
-      <c r="P53" s="36">
+      <c r="P53" s="35">
         <v>754.25</v>
       </c>
-      <c r="Q53" s="36">
+      <c r="Q53" s="35">
         <v>758.6</v>
       </c>
-      <c r="R53" s="36">
+      <c r="R53" s="35">
         <v>755.07</v>
       </c>
-      <c r="S53" s="36">
+      <c r="S53" s="35">
         <v>768.63</v>
       </c>
-      <c r="T53" s="36">
+      <c r="T53" s="35">
         <v>780.12</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="36">
+      <c r="B54" s="35">
         <v>793.74</v>
       </c>
-      <c r="C54" s="36">
+      <c r="C54" s="35">
         <v>791.42</v>
       </c>
-      <c r="D54" s="36">
+      <c r="D54" s="35">
         <v>794.54</v>
       </c>
-      <c r="E54" s="36">
+      <c r="E54" s="35">
         <v>801.27</v>
       </c>
-      <c r="F54" s="36">
+      <c r="F54" s="35">
         <v>809.42</v>
       </c>
-      <c r="G54" s="36">
+      <c r="G54" s="35">
         <v>798.34</v>
       </c>
-      <c r="H54" s="36">
+      <c r="H54" s="35">
         <v>809.85</v>
       </c>
-      <c r="I54" s="36">
+      <c r="I54" s="35">
         <v>808.16</v>
       </c>
-      <c r="J54" s="36">
+      <c r="J54" s="35">
         <v>801.02</v>
       </c>
-      <c r="K54" s="36">
+      <c r="K54" s="35">
         <v>825.52</v>
       </c>
-      <c r="L54" s="36">
+      <c r="L54" s="35">
         <v>819.25</v>
       </c>
-      <c r="M54" s="36">
+      <c r="M54" s="35">
         <v>818.41</v>
       </c>
-      <c r="N54" s="36">
+      <c r="N54" s="35">
         <v>829.25</v>
       </c>
-      <c r="O54" s="36">
+      <c r="O54" s="35">
         <v>812.52</v>
       </c>
-      <c r="P54" s="36">
+      <c r="P54" s="35">
         <v>815.85</v>
       </c>
-      <c r="Q54" s="36">
+      <c r="Q54" s="35">
         <v>843.31</v>
       </c>
-      <c r="R54" s="36">
+      <c r="R54" s="35">
         <v>817.74</v>
       </c>
-      <c r="S54" s="36">
+      <c r="S54" s="35">
         <v>816.27</v>
       </c>
-      <c r="T54" s="36">
+      <c r="T54" s="35">
         <v>839.95</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="36">
+      <c r="B55" s="35">
         <v>774.82</v>
       </c>
-      <c r="C55" s="36">
+      <c r="C55" s="35">
         <v>777.2</v>
       </c>
-      <c r="D55" s="36">
+      <c r="D55" s="35">
         <v>776.88</v>
       </c>
-      <c r="E55" s="36">
+      <c r="E55" s="35">
         <v>755.31</v>
       </c>
-      <c r="F55" s="36">
+      <c r="F55" s="35">
         <v>773.89</v>
       </c>
-      <c r="G55" s="36">
+      <c r="G55" s="35">
         <v>746.5</v>
       </c>
-      <c r="H55" s="36">
+      <c r="H55" s="35">
         <v>757.91</v>
       </c>
-      <c r="I55" s="36">
+      <c r="I55" s="35">
         <v>770.38</v>
       </c>
-      <c r="J55" s="36">
+      <c r="J55" s="35">
         <v>775.56</v>
       </c>
-      <c r="K55" s="36">
+      <c r="K55" s="35">
         <v>812.26</v>
       </c>
-      <c r="L55" s="36">
+      <c r="L55" s="35">
         <v>793.54</v>
       </c>
-      <c r="M55" s="36">
+      <c r="M55" s="35">
         <v>770.25</v>
       </c>
-      <c r="N55" s="36">
+      <c r="N55" s="35">
         <v>795.31</v>
       </c>
-      <c r="O55" s="36">
+      <c r="O55" s="35">
         <v>783.42</v>
       </c>
-      <c r="P55" s="36">
+      <c r="P55" s="35">
         <v>784.14</v>
       </c>
-      <c r="Q55" s="36">
+      <c r="Q55" s="35">
         <v>838.01</v>
       </c>
-      <c r="R55" s="36">
+      <c r="R55" s="35">
         <v>824.2</v>
       </c>
-      <c r="S55" s="36">
+      <c r="S55" s="35">
         <v>816.76</v>
       </c>
-      <c r="T55" s="36">
+      <c r="T55" s="35">
         <v>835.18</v>
       </c>
     </row>
@@ -11482,26 +11490,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="46">
+      <c r="C1" s="45">
         <f>+Earnings_Comparison!E58</f>
         <v>909.42</v>
       </c>
@@ -11510,15 +11518,15 @@
         <v>1.0800694669405031</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>165</v>
       </c>
@@ -11532,7 +11540,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>+Earnings_Comparison!B12</f>
         <v>DE</v>
@@ -11549,7 +11557,7 @@
         <v>11.761752934516245</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>+Earnings_Comparison!B7</f>
         <v>AZ</v>
@@ -11566,7 +11574,7 @@
         <v>8.4202774114052978</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>+Earnings_Comparison!B55</f>
         <v>WY</v>
@@ -11584,7 +11592,7 @@
       </c>
       <c r="M6" s="20"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>+Earnings_Comparison!B30</f>
         <v>MO</v>
@@ -11603,7 +11611,7 @@
       <c r="K7" s="20"/>
       <c r="M7" s="20"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>+Earnings_Comparison!B13</f>
         <v>DC</v>
@@ -11625,7 +11633,7 @@
       </c>
       <c r="M8" s="20"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>+Earnings_Comparison!B15</f>
         <v>GA</v>
@@ -11647,7 +11655,7 @@
       </c>
       <c r="M9" s="20"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>+Earnings_Comparison!B9</f>
         <v>CA</v>
@@ -11669,7 +11677,7 @@
       </c>
       <c r="M10" s="20"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>+Earnings_Comparison!B16</f>
         <v>HI</v>
@@ -11691,7 +11699,7 @@
       </c>
       <c r="M11" s="20"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>+Earnings_Comparison!B41</f>
         <v>OK</v>
@@ -11711,7 +11719,7 @@
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>+Earnings_Comparison!B49</f>
         <v>UT</v>
@@ -11730,7 +11738,7 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>+Earnings_Comparison!B32</f>
         <v>NE</v>
@@ -11753,7 +11761,7 @@
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>+Earnings_Comparison!B48</f>
         <v>TX</v>
@@ -11776,7 +11784,7 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>+Earnings_Comparison!B52</f>
         <v>WA</v>
@@ -11798,7 +11806,7 @@
       </c>
       <c r="M16" s="20"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>+Earnings_Comparison!B19</f>
         <v>IN</v>
@@ -11820,7 +11828,7 @@
       </c>
       <c r="M17" s="20"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>+Earnings_Comparison!B28</f>
         <v>MN</v>
@@ -11842,7 +11850,7 @@
       </c>
       <c r="M18" s="20"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>+Earnings_Comparison!B53</f>
         <v>WV</v>
@@ -11864,7 +11872,7 @@
       </c>
       <c r="M19" s="20"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>+Earnings_Comparison!B24</f>
         <v>ME</v>
@@ -11886,7 +11894,7 @@
       </c>
       <c r="M20" s="20"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>+Earnings_Comparison!B36</f>
         <v>NM</v>
@@ -11907,7 +11915,7 @@
         <v>183.51999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>+Earnings_Comparison!B10</f>
         <v>CO</v>
@@ -11924,7 +11932,7 @@
         <v>4.1802710450885128</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>+Earnings_Comparison!B35</f>
         <v>NJ</v>
@@ -11941,7 +11949,7 @@
         <v>3.9691704339658074</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>+Earnings_Comparison!B45</f>
         <v>SC</v>
@@ -11958,7 +11966,7 @@
         <v>3.9592501859836426</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>+Earnings_Comparison!B39</f>
         <v>ND</v>
@@ -11975,7 +11983,7 @@
         <v>3.9409293472148166</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>+Earnings_Comparison!B14</f>
         <v>FL</v>
@@ -11992,7 +12000,7 @@
         <v>3.761031775713275</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>+Earnings_Comparison!B31</f>
         <v>MT</v>
@@ -12009,7 +12017,7 @@
         <v>3.449378719085483</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>+Earnings_Comparison!B42</f>
         <v>OR</v>
@@ -12026,7 +12034,7 @@
         <v>3.412728385519781</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>+Earnings_Comparison!B23</f>
         <v>LA</v>
@@ -12043,7 +12051,7 @@
         <v>3.1342544977436271</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>+Earnings_Comparison!B38</f>
         <v>NC</v>
@@ -12060,7 +12068,7 @@
         <v>2.9890354333622637</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>+Earnings_Comparison!B17</f>
         <v>ID</v>
@@ -12077,7 +12085,7 @@
         <v>2.9732277344208136</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f>+Earnings_Comparison!B25</f>
         <v>MD</v>
@@ -12089,7 +12097,7 @@
         <f>+Earnings_Comparison!E25</f>
         <v>970.14</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="34">
         <f>+Earnings_Comparison!H25</f>
         <v>2.7474728856072161</v>
       </c>
@@ -12097,7 +12105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>+Earnings_Comparison!B11</f>
         <v>CT</v>
@@ -12114,7 +12122,7 @@
         <v>2.653951392058107</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>+Earnings_Comparison!B47</f>
         <v>TN</v>
@@ -12131,7 +12139,7 @@
         <v>2.4702090932969378</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>+Earnings_Comparison!B21</f>
         <v>KS</v>
@@ -12148,7 +12156,7 @@
         <v>2.401750193753216</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>+Earnings_Comparison!B44</f>
         <v>RI</v>
@@ -12165,7 +12173,7 @@
         <v>2.34390400101121</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>+Earnings_Comparison!B26</f>
         <v>MA</v>
@@ -12182,7 +12190,7 @@
         <v>2.2072751628677389</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>+Earnings_Comparison!B27</f>
         <v>MI</v>
@@ -12199,7 +12207,7 @@
         <v>2.0684340018956693</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>+Earnings_Comparison!B6</f>
         <v>AK</v>
@@ -12216,7 +12224,7 @@
         <v>1.9995794181475679</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f>+Earnings_Comparison!B37</f>
         <v>NY</v>
@@ -12228,12 +12236,12 @@
         <f>+Earnings_Comparison!E37</f>
         <v>1013.7</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="34">
         <f>+Earnings_Comparison!H37</f>
         <v>1.9626545183159871</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f>+Earnings_Comparison!B54</f>
         <v>WI</v>
@@ -12250,7 +12258,7 @@
         <v>1.9549776190133317</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>+Earnings_Comparison!B33</f>
         <v>NV</v>
@@ -12267,7 +12275,7 @@
         <v>1.9047499961891479</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>+Earnings_Comparison!B8</f>
         <v>AR</v>
@@ -12284,7 +12292,7 @@
         <v>1.8935114256935615</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>+Earnings_Comparison!B22</f>
         <v>KY</v>
@@ -12302,7 +12310,7 @@
       </c>
       <c r="H44" s="20"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>+Earnings_Comparison!B18</f>
         <v>IL</v>
@@ -12322,7 +12330,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>+Earnings_Comparison!B40</f>
         <v>OH</v>
@@ -12334,7 +12342,7 @@
         <f>+Earnings_Comparison!E40</f>
         <v>822.17</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="34">
         <f>+Earnings_Comparison!H40</f>
         <v>0.99777586777844984</v>
       </c>
@@ -12342,7 +12350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>+Earnings_Comparison!B34</f>
         <v>NH</v>
@@ -12362,7 +12370,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f>+Earnings_Comparison!B46</f>
         <v>SD</v>
@@ -12382,7 +12390,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f>+Earnings_Comparison!B5</f>
         <v>AL</v>
@@ -12402,7 +12410,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>+Earnings_Comparison!B29</f>
         <v>MS</v>
@@ -12422,7 +12430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>+Earnings_Comparison!B43</f>
         <v>PA</v>
@@ -12442,7 +12450,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>+Earnings_Comparison!B51</f>
         <v>VA</v>
@@ -12460,7 +12468,7 @@
       </c>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>+Earnings_Comparison!B50</f>
         <v>VT</v>
@@ -12478,7 +12486,7 @@
       </c>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>+Earnings_Comparison!B20</f>
         <v>IA</v>
@@ -12495,7 +12503,7 @@
         <v>-1.4339970245571543</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C56">
         <f>COUNTIF(C4:C54, "&lt;909")</f>
         <v>34</v>
